--- a/results/datasetNearZero_polytree15.xlsx
+++ b/results/datasetNearZero_polytree15.xlsx
@@ -466,13 +466,13 @@
         <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>0.992</v>
+        <v>0.9939999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>0.008000000000000109</v>
+        <v>0.006000000000000083</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1250154972076416</v>
+        <v>0.1099352836608887</v>
       </c>
     </row>
     <row r="3">
@@ -488,13 +488,13 @@
         <v>25</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9879999999999998</v>
+        <v>0.9889999999999998</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01200000000000016</v>
+        <v>0.01100000000000015</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1249234676361084</v>
+        <v>0.1381580829620361</v>
       </c>
     </row>
     <row r="4">
@@ -510,13 +510,13 @@
         <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9809999999999998</v>
+        <v>0.9939999999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01900000000000025</v>
+        <v>0.006000000000000083</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1093964576721191</v>
+        <v>0.1155011653900146</v>
       </c>
     </row>
     <row r="5">
@@ -532,13 +532,13 @@
         <v>25</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9859999999999999</v>
+        <v>0.9839999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01400000000000019</v>
+        <v>0.01600000000000022</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1249809265136719</v>
+        <v>0.1315183639526367</v>
       </c>
     </row>
     <row r="6">
@@ -554,13 +554,13 @@
         <v>25</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9889999999999998</v>
+        <v>0.9799999999999998</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01100000000000015</v>
+        <v>0.02000000000000027</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1249556541442871</v>
+        <v>0.1159365177154541</v>
       </c>
     </row>
     <row r="7">
@@ -576,13 +576,13 @@
         <v>25</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9839999999999999</v>
+        <v>0.9849999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>0.01600000000000022</v>
+        <v>0.0150000000000002</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1373171806335449</v>
+        <v>0.1224832534790039</v>
       </c>
     </row>
     <row r="8">
@@ -598,13 +598,13 @@
         <v>25</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9869999999999999</v>
+        <v>0.9859999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>0.01300000000000018</v>
+        <v>0.01400000000000019</v>
       </c>
       <c r="F8" t="n">
-        <v>0.124969482421875</v>
+        <v>0.130143404006958</v>
       </c>
     </row>
     <row r="9">
@@ -620,13 +620,13 @@
         <v>25</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9799999999999998</v>
+        <v>0.9849999999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>0.02000000000000027</v>
+        <v>0.0150000000000002</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1249685287475586</v>
+        <v>0.1325314044952393</v>
       </c>
     </row>
     <row r="10">
@@ -642,13 +642,13 @@
         <v>25</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9949999999999999</v>
+        <v>0.9879999999999998</v>
       </c>
       <c r="E10" t="n">
-        <v>0.005000000000000069</v>
+        <v>0.01200000000000016</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1249732971191406</v>
+        <v>0.1159682273864746</v>
       </c>
     </row>
     <row r="11">
@@ -664,13 +664,13 @@
         <v>25</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9859999999999999</v>
+        <v>0.9899999999999998</v>
       </c>
       <c r="E11" t="n">
-        <v>0.01400000000000019</v>
+        <v>0.01000000000000014</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1625676155090332</v>
+        <v>0.1779632568359375</v>
       </c>
     </row>
     <row r="12">
@@ -692,7 +692,7 @@
         <v>0.01100000000000015</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1283349990844727</v>
+        <v>0.1296448707580566</v>
       </c>
     </row>
     <row r="13">
@@ -708,13 +708,13 @@
         <v>25</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9869999999999999</v>
+        <v>0.9809999999999998</v>
       </c>
       <c r="E13" t="n">
-        <v>0.01300000000000018</v>
+        <v>0.01900000000000025</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1198709011077881</v>
+        <v>0.1289284229278564</v>
       </c>
     </row>
     <row r="14">
@@ -730,13 +730,13 @@
         <v>25</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9849999999999999</v>
+        <v>0.9829999999999997</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0150000000000002</v>
+        <v>0.01700000000000023</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1312413215637207</v>
+        <v>0.1212136745452881</v>
       </c>
     </row>
     <row r="15">
@@ -752,13 +752,13 @@
         <v>25</v>
       </c>
       <c r="D15" t="n">
-        <v>0.991</v>
+        <v>0.9869999999999999</v>
       </c>
       <c r="E15" t="n">
-        <v>0.009000000000000124</v>
+        <v>0.01300000000000018</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1247696876525879</v>
+        <v>0.1339349746704102</v>
       </c>
     </row>
     <row r="16">
@@ -774,13 +774,13 @@
         <v>25</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9899999999999998</v>
+        <v>0.9889999999999998</v>
       </c>
       <c r="E16" t="n">
-        <v>0.01000000000000014</v>
+        <v>0.01100000000000015</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1064531803131104</v>
+        <v>0.1273660659790039</v>
       </c>
     </row>
     <row r="17">
@@ -796,13 +796,13 @@
         <v>25</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9869999999999999</v>
+        <v>0.9839999999999999</v>
       </c>
       <c r="E17" t="n">
-        <v>0.01300000000000018</v>
+        <v>0.01600000000000022</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1249728202819824</v>
+        <v>0.1233963966369629</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         <v>25</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9879999999999998</v>
+        <v>0.9849999999999999</v>
       </c>
       <c r="E18" t="n">
-        <v>0.01200000000000016</v>
+        <v>0.0150000000000002</v>
       </c>
       <c r="F18" t="n">
-        <v>0.124969482421875</v>
+        <v>0.1212573051452637</v>
       </c>
     </row>
     <row r="19">
@@ -840,13 +840,13 @@
         <v>25</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9869999999999999</v>
+        <v>0.992</v>
       </c>
       <c r="E19" t="n">
-        <v>0.01300000000000018</v>
+        <v>0.008000000000000109</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1249723434448242</v>
+        <v>0.1214661598205566</v>
       </c>
     </row>
     <row r="20">
@@ -862,13 +862,13 @@
         <v>25</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9789999999999998</v>
+        <v>0.9889999999999998</v>
       </c>
       <c r="E20" t="n">
-        <v>0.02100000000000028</v>
+        <v>0.01100000000000015</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1249709129333496</v>
+        <v>0.1505980491638184</v>
       </c>
     </row>
     <row r="21">
@@ -884,13 +884,13 @@
         <v>25</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9879999999999998</v>
+        <v>0.9829999999999997</v>
       </c>
       <c r="E21" t="n">
-        <v>0.01200000000000016</v>
+        <v>0.01700000000000023</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1249740123748779</v>
+        <v>0.1359765529632568</v>
       </c>
     </row>
     <row r="22">
@@ -906,13 +906,13 @@
         <v>25</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9889999999999998</v>
+        <v>0.9869999999999999</v>
       </c>
       <c r="E22" t="n">
-        <v>0.01100000000000015</v>
+        <v>0.01300000000000018</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1249661445617676</v>
+        <v>0.1159391403198242</v>
       </c>
     </row>
     <row r="23">
@@ -928,13 +928,13 @@
         <v>25</v>
       </c>
       <c r="D23" t="n">
-        <v>0.992</v>
+        <v>0.9839999999999999</v>
       </c>
       <c r="E23" t="n">
-        <v>0.008000000000000109</v>
+        <v>0.01600000000000022</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1249728202819824</v>
+        <v>0.1315469741821289</v>
       </c>
     </row>
     <row r="24">
@@ -950,13 +950,13 @@
         <v>25</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9789999999999998</v>
+        <v>0.9839999999999999</v>
       </c>
       <c r="E24" t="n">
-        <v>0.02100000000000028</v>
+        <v>0.01600000000000022</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1093518733978271</v>
+        <v>0.1205320358276367</v>
       </c>
     </row>
     <row r="25">
@@ -972,13 +972,13 @@
         <v>25</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9819999999999998</v>
+        <v>0.9829999999999997</v>
       </c>
       <c r="E25" t="n">
-        <v>0.01800000000000024</v>
+        <v>0.01700000000000023</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1249704360961914</v>
+        <v>0.1311430931091309</v>
       </c>
     </row>
     <row r="26">
@@ -994,13 +994,13 @@
         <v>25</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9809999999999998</v>
+        <v>0.9889999999999998</v>
       </c>
       <c r="E26" t="n">
-        <v>0.01900000000000025</v>
+        <v>0.01100000000000015</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1249704360961914</v>
+        <v>0.1213092803955078</v>
       </c>
     </row>
     <row r="27">
@@ -1016,13 +1016,13 @@
         <v>25</v>
       </c>
       <c r="D27" t="n">
-        <v>0.5419144633519976</v>
+        <v>0.5390832522033016</v>
       </c>
       <c r="E27" t="n">
-        <v>0.4580855366480025</v>
+        <v>0.4609167477966984</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1249234676361084</v>
+        <v>0.1293210983276367</v>
       </c>
     </row>
     <row r="28">
@@ -1038,13 +1038,13 @@
         <v>25</v>
       </c>
       <c r="D28" t="n">
-        <v>0.5542849068373069</v>
+        <v>0.5540769795843318</v>
       </c>
       <c r="E28" t="n">
-        <v>0.445715093162693</v>
+        <v>0.4459230204156682</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1250131130218506</v>
+        <v>0.1215567588806152</v>
       </c>
     </row>
     <row r="29">
@@ -1060,13 +1060,13 @@
         <v>25</v>
       </c>
       <c r="D29" t="n">
-        <v>0.556696089974175</v>
+        <v>0.5556899996898556</v>
       </c>
       <c r="E29" t="n">
-        <v>0.443303910025825</v>
+        <v>0.4443100003101445</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1249730587005615</v>
+        <v>0.1245367527008057</v>
       </c>
     </row>
     <row r="30">
@@ -1082,13 +1082,13 @@
         <v>25</v>
       </c>
       <c r="D30" t="n">
-        <v>0.5528761970826549</v>
+        <v>0.5458365558560589</v>
       </c>
       <c r="E30" t="n">
-        <v>0.4471238029173453</v>
+        <v>0.454163444143941</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1093542575836182</v>
+        <v>0.1315212249755859</v>
       </c>
     </row>
     <row r="31">
@@ -1104,13 +1104,13 @@
         <v>25</v>
       </c>
       <c r="D31" t="n">
-        <v>0.5242879717718446</v>
+        <v>0.5579943471139607</v>
       </c>
       <c r="E31" t="n">
-        <v>0.4757120282281553</v>
+        <v>0.4420056528860392</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1249206066131592</v>
+        <v>0.1212725639343262</v>
       </c>
     </row>
     <row r="32">
@@ -1126,13 +1126,13 @@
         <v>25</v>
       </c>
       <c r="D32" t="n">
-        <v>0.5333665558986684</v>
+        <v>0.5284731420088208</v>
       </c>
       <c r="E32" t="n">
-        <v>0.4666334441013315</v>
+        <v>0.4715268579911793</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1250157356262207</v>
+        <v>0.1293597221374512</v>
       </c>
     </row>
     <row r="33">
@@ -1148,13 +1148,13 @@
         <v>25</v>
       </c>
       <c r="D33" t="n">
-        <v>0.5413620352255181</v>
+        <v>0.5336666111959566</v>
       </c>
       <c r="E33" t="n">
-        <v>0.458637964774482</v>
+        <v>0.4663333888040434</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1249682903289795</v>
+        <v>0.1234517097473145</v>
       </c>
     </row>
     <row r="34">
@@ -1170,13 +1170,13 @@
         <v>25</v>
       </c>
       <c r="D34" t="n">
-        <v>0.5553145193167572</v>
+        <v>0.5280786779976891</v>
       </c>
       <c r="E34" t="n">
-        <v>0.4446854806832428</v>
+        <v>0.4719213220023108</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1249730587005615</v>
+        <v>0.1213588714599609</v>
       </c>
     </row>
     <row r="35">
@@ -1192,13 +1192,13 @@
         <v>25</v>
       </c>
       <c r="D35" t="n">
-        <v>0.5479639554144822</v>
+        <v>0.5577177341349445</v>
       </c>
       <c r="E35" t="n">
-        <v>0.4520360445855177</v>
+        <v>0.4422822658650555</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1249678134918213</v>
+        <v>0.1314828395843506</v>
       </c>
     </row>
     <row r="36">
@@ -1214,13 +1214,13 @@
         <v>25</v>
       </c>
       <c r="D36" t="n">
-        <v>0.5519254228573152</v>
+        <v>0.5442885979579128</v>
       </c>
       <c r="E36" t="n">
-        <v>0.4480745771426848</v>
+        <v>0.4557114020420871</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1249783039093018</v>
+        <v>0.1194169521331787</v>
       </c>
     </row>
     <row r="37">
@@ -1236,13 +1236,13 @@
         <v>25</v>
       </c>
       <c r="D37" t="n">
-        <v>0.559527320223702</v>
+        <v>0.5350859687039796</v>
       </c>
       <c r="E37" t="n">
-        <v>0.4404726797762982</v>
+        <v>0.4649140312960204</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1249625682830811</v>
+        <v>0.1246562004089355</v>
       </c>
     </row>
     <row r="38">
@@ -1258,13 +1258,13 @@
         <v>25</v>
       </c>
       <c r="D38" t="n">
-        <v>0.5419802302363609</v>
+        <v>0.5601388396262077</v>
       </c>
       <c r="E38" t="n">
-        <v>0.4580197697636391</v>
+        <v>0.4398611603737924</v>
       </c>
       <c r="F38" t="n">
-        <v>0.109349250793457</v>
+        <v>0.1513404846191406</v>
       </c>
     </row>
     <row r="39">
@@ -1280,13 +1280,13 @@
         <v>25</v>
       </c>
       <c r="D39" t="n">
-        <v>0.5217585106987336</v>
+        <v>0.5393966168861126</v>
       </c>
       <c r="E39" t="n">
-        <v>0.4782414893012665</v>
+        <v>0.4606033831138873</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1249282360076904</v>
+        <v>0.1314418315887451</v>
       </c>
     </row>
     <row r="40">
@@ -1302,13 +1302,13 @@
         <v>25</v>
       </c>
       <c r="D40" t="n">
-        <v>0.55497595820186</v>
+        <v>0.5224573373908049</v>
       </c>
       <c r="E40" t="n">
-        <v>0.4450240417981401</v>
+        <v>0.4775426626091951</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1250209808349609</v>
+        <v>0.1212208271026611</v>
       </c>
     </row>
     <row r="41">
@@ -1324,13 +1324,13 @@
         <v>25</v>
       </c>
       <c r="D41" t="n">
-        <v>0.507036255718707</v>
+        <v>0.5327133433223908</v>
       </c>
       <c r="E41" t="n">
-        <v>0.4929637442812929</v>
+        <v>0.4672866566776093</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1249630451202393</v>
+        <v>0.1323482990264893</v>
       </c>
     </row>
     <row r="42">
@@ -1346,13 +1346,13 @@
         <v>25</v>
       </c>
       <c r="D42" t="n">
-        <v>0.5242600157258744</v>
+        <v>0.5498307296160845</v>
       </c>
       <c r="E42" t="n">
-        <v>0.4757399842741257</v>
+        <v>0.4501692703839156</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1249711513519287</v>
+        <v>0.1214070320129395</v>
       </c>
     </row>
     <row r="43">
@@ -1368,13 +1368,13 @@
         <v>25</v>
       </c>
       <c r="D43" t="n">
-        <v>0.5529796426078628</v>
+        <v>0.5914100124100504</v>
       </c>
       <c r="E43" t="n">
-        <v>0.4470203573921372</v>
+        <v>0.4085899875899495</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1249713897705078</v>
+        <v>0.1294624805450439</v>
       </c>
     </row>
     <row r="44">
@@ -1390,13 +1390,13 @@
         <v>25</v>
       </c>
       <c r="D44" t="n">
-        <v>0.5559539333882958</v>
+        <v>0.5631826025463965</v>
       </c>
       <c r="E44" t="n">
-        <v>0.4440460666117041</v>
+        <v>0.4368173974536035</v>
       </c>
       <c r="F44" t="n">
-        <v>0.124969482421875</v>
+        <v>0.1234138011932373</v>
       </c>
     </row>
     <row r="45">
@@ -1412,13 +1412,13 @@
         <v>25</v>
       </c>
       <c r="D45" t="n">
-        <v>0.5592196703504271</v>
+        <v>0.5463494380795312</v>
       </c>
       <c r="E45" t="n">
-        <v>0.440780329649573</v>
+        <v>0.4536505619204688</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1249699592590332</v>
+        <v>0.1270678043365479</v>
       </c>
     </row>
     <row r="46">
@@ -1434,13 +1434,13 @@
         <v>25</v>
       </c>
       <c r="D46" t="n">
-        <v>0.5183877141179435</v>
+        <v>0.5556857233724523</v>
       </c>
       <c r="E46" t="n">
-        <v>0.4816122858820564</v>
+        <v>0.4443142766275477</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1249716281890869</v>
+        <v>0.1164133548736572</v>
       </c>
     </row>
     <row r="47">
@@ -1456,13 +1456,13 @@
         <v>25</v>
       </c>
       <c r="D47" t="n">
-        <v>0.5616652845570911</v>
+        <v>0.5336142616301067</v>
       </c>
       <c r="E47" t="n">
-        <v>0.438334715442909</v>
+        <v>0.4663857383698934</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1249704360961914</v>
+        <v>0.121455192565918</v>
       </c>
     </row>
     <row r="48">
@@ -1478,13 +1478,13 @@
         <v>25</v>
       </c>
       <c r="D48" t="n">
-        <v>0.5476329348313262</v>
+        <v>0.5680414036803333</v>
       </c>
       <c r="E48" t="n">
-        <v>0.4523670651686736</v>
+        <v>0.4319585963196667</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1249709129333496</v>
+        <v>0.1314628124237061</v>
       </c>
     </row>
     <row r="49">
@@ -1500,13 +1500,13 @@
         <v>25</v>
       </c>
       <c r="D49" t="n">
-        <v>0.5485058853174379</v>
+        <v>0.5585506804142504</v>
       </c>
       <c r="E49" t="n">
-        <v>0.451494114682562</v>
+        <v>0.4414493195857497</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1249699592590332</v>
+        <v>0.1214718818664551</v>
       </c>
     </row>
     <row r="50">
@@ -1522,13 +1522,13 @@
         <v>25</v>
       </c>
       <c r="D50" t="n">
-        <v>0.5275269974948795</v>
+        <v>0.5617954729119342</v>
       </c>
       <c r="E50" t="n">
-        <v>0.4724730025051205</v>
+        <v>0.4382045270880658</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1249704360961914</v>
+        <v>0.132035493850708</v>
       </c>
     </row>
     <row r="51">
@@ -1544,13 +1544,13 @@
         <v>25</v>
       </c>
       <c r="D51" t="n">
-        <v>0.5425994247919544</v>
+        <v>0.5442440261373676</v>
       </c>
       <c r="E51" t="n">
-        <v>0.4574005752080456</v>
+        <v>0.4557559738626326</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1249706745147705</v>
+        <v>0.1211438179016113</v>
       </c>
     </row>
     <row r="52">
@@ -1566,13 +1566,13 @@
         <v>25</v>
       </c>
       <c r="D52" t="n">
-        <v>0.998</v>
+        <v>0.9370000000000001</v>
       </c>
       <c r="E52" t="n">
-        <v>0.002</v>
+        <v>0.063</v>
       </c>
       <c r="F52" t="n">
-        <v>0.2217159271240234</v>
+        <v>0.2302999496459961</v>
       </c>
     </row>
     <row r="53">
@@ -1588,13 +1588,13 @@
         <v>25</v>
       </c>
       <c r="D53" t="n">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="E53" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2187018394470215</v>
+        <v>0.2148532867431641</v>
       </c>
     </row>
     <row r="54">
@@ -1610,13 +1610,13 @@
         <v>25</v>
       </c>
       <c r="D54" t="n">
-        <v>1</v>
+        <v>0.958</v>
       </c>
       <c r="E54" t="n">
-        <v>0</v>
+        <v>0.042</v>
       </c>
       <c r="F54" t="n">
-        <v>0.2186973094940186</v>
+        <v>0.2223718166351318</v>
       </c>
     </row>
     <row r="55">
@@ -1632,13 +1632,13 @@
         <v>25</v>
       </c>
       <c r="D55" t="n">
-        <v>0.998</v>
+        <v>1</v>
       </c>
       <c r="E55" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2186555862426758</v>
+        <v>0.2224123477935791</v>
       </c>
     </row>
     <row r="56">
@@ -1654,13 +1654,13 @@
         <v>25</v>
       </c>
       <c r="D56" t="n">
-        <v>0.983</v>
+        <v>0.979</v>
       </c>
       <c r="E56" t="n">
-        <v>0.017</v>
+        <v>0.021</v>
       </c>
       <c r="F56" t="n">
-        <v>0.2343711853027344</v>
+        <v>0.2206299304962158</v>
       </c>
     </row>
     <row r="57">
@@ -1676,13 +1676,13 @@
         <v>25</v>
       </c>
       <c r="D57" t="n">
-        <v>1</v>
+        <v>0.978</v>
       </c>
       <c r="E57" t="n">
-        <v>0</v>
+        <v>0.022</v>
       </c>
       <c r="F57" t="n">
-        <v>0.2186896800994873</v>
+        <v>0.2143073081970215</v>
       </c>
     </row>
     <row r="58">
@@ -1698,13 +1698,13 @@
         <v>25</v>
       </c>
       <c r="D58" t="n">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="E58" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="F58" t="n">
-        <v>0.218698263168335</v>
+        <v>0.2131123542785645</v>
       </c>
     </row>
     <row r="59">
@@ -1720,13 +1720,13 @@
         <v>25</v>
       </c>
       <c r="D59" t="n">
-        <v>0.974</v>
+        <v>0.997</v>
       </c>
       <c r="E59" t="n">
-        <v>0.026</v>
+        <v>0.003</v>
       </c>
       <c r="F59" t="n">
-        <v>0.2030811309814453</v>
+        <v>0.2225186824798584</v>
       </c>
     </row>
     <row r="60">
@@ -1748,7 +1748,7 @@
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2187027931213379</v>
+        <v>0.2127552032470703</v>
       </c>
     </row>
     <row r="61">
@@ -1764,13 +1764,13 @@
         <v>25</v>
       </c>
       <c r="D61" t="n">
-        <v>0.994</v>
+        <v>0.997</v>
       </c>
       <c r="E61" t="n">
-        <v>0.006</v>
+        <v>0.003</v>
       </c>
       <c r="F61" t="n">
-        <v>0.2030265331268311</v>
+        <v>0.2228224277496338</v>
       </c>
     </row>
     <row r="62">
@@ -1792,7 +1792,7 @@
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>0.2187445163726807</v>
+        <v>0.2202463150024414</v>
       </c>
     </row>
     <row r="63">
@@ -1808,13 +1808,13 @@
         <v>25</v>
       </c>
       <c r="D63" t="n">
-        <v>0.999</v>
+        <v>0.977</v>
       </c>
       <c r="E63" t="n">
-        <v>0.001</v>
+        <v>0.023</v>
       </c>
       <c r="F63" t="n">
-        <v>0.2186958789825439</v>
+        <v>0.2149455547332764</v>
       </c>
     </row>
     <row r="64">
@@ -1830,13 +1830,13 @@
         <v>25</v>
       </c>
       <c r="D64" t="n">
-        <v>0.944</v>
+        <v>0.981</v>
       </c>
       <c r="E64" t="n">
-        <v>0.056</v>
+        <v>0.019</v>
       </c>
       <c r="F64" t="n">
-        <v>0.2186858654022217</v>
+        <v>0.2123098373413086</v>
       </c>
     </row>
     <row r="65">
@@ -1852,13 +1852,13 @@
         <v>25</v>
       </c>
       <c r="D65" t="n">
-        <v>0.996</v>
+        <v>0.99</v>
       </c>
       <c r="E65" t="n">
-        <v>0.004</v>
+        <v>0.01</v>
       </c>
       <c r="F65" t="n">
-        <v>0.2187125682830811</v>
+        <v>0.220484733581543</v>
       </c>
     </row>
     <row r="66">
@@ -1874,13 +1874,13 @@
         <v>25</v>
       </c>
       <c r="D66" t="n">
-        <v>0.992</v>
+        <v>0.99</v>
       </c>
       <c r="E66" t="n">
-        <v>0.008</v>
+        <v>0.01</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2030887603759766</v>
+        <v>0.2144982814788818</v>
       </c>
     </row>
     <row r="67">
@@ -1896,13 +1896,13 @@
         <v>25</v>
       </c>
       <c r="D67" t="n">
-        <v>0.978</v>
+        <v>0.981</v>
       </c>
       <c r="E67" t="n">
-        <v>0.022</v>
+        <v>0.019</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2186875343322754</v>
+        <v>0.2223618030548096</v>
       </c>
     </row>
     <row r="68">
@@ -1918,13 +1918,13 @@
         <v>25</v>
       </c>
       <c r="D68" t="n">
-        <v>0.979</v>
+        <v>0.982</v>
       </c>
       <c r="E68" t="n">
-        <v>0.021</v>
+        <v>0.018</v>
       </c>
       <c r="F68" t="n">
-        <v>0.2030789852142334</v>
+        <v>0.2224512100219727</v>
       </c>
     </row>
     <row r="69">
@@ -1940,13 +1940,13 @@
         <v>25</v>
       </c>
       <c r="D69" t="n">
-        <v>0.998</v>
+        <v>0.98</v>
       </c>
       <c r="E69" t="n">
-        <v>0.002</v>
+        <v>0.02</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2186973094940186</v>
+        <v>0.2123129367828369</v>
       </c>
     </row>
     <row r="70">
@@ -1962,13 +1962,13 @@
         <v>25</v>
       </c>
       <c r="D70" t="n">
-        <v>1</v>
+        <v>0.981</v>
       </c>
       <c r="E70" t="n">
-        <v>0</v>
+        <v>0.019</v>
       </c>
       <c r="F70" t="n">
-        <v>0.2186529636383057</v>
+        <v>0.2154088020324707</v>
       </c>
     </row>
     <row r="71">
@@ -1984,13 +1984,13 @@
         <v>25</v>
       </c>
       <c r="D71" t="n">
-        <v>0.988</v>
+        <v>1</v>
       </c>
       <c r="E71" t="n">
-        <v>0.012</v>
+        <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.2031214237213135</v>
+        <v>0.2160854339599609</v>
       </c>
     </row>
     <row r="72">
@@ -2006,13 +2006,13 @@
         <v>25</v>
       </c>
       <c r="D72" t="n">
-        <v>1</v>
+        <v>0.974</v>
       </c>
       <c r="E72" t="n">
-        <v>0</v>
+        <v>0.026</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2186541557312012</v>
+        <v>0.2142362594604492</v>
       </c>
     </row>
     <row r="73">
@@ -2028,13 +2028,13 @@
         <v>25</v>
       </c>
       <c r="D73" t="n">
-        <v>0.983</v>
+        <v>0.986</v>
       </c>
       <c r="E73" t="n">
-        <v>0.017</v>
+        <v>0.014</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2187497615814209</v>
+        <v>0.2181284427642822</v>
       </c>
     </row>
     <row r="74">
@@ -2050,13 +2050,13 @@
         <v>25</v>
       </c>
       <c r="D74" t="n">
-        <v>1</v>
+        <v>0.948</v>
       </c>
       <c r="E74" t="n">
-        <v>0</v>
+        <v>0.052</v>
       </c>
       <c r="F74" t="n">
-        <v>0.2030751705169678</v>
+        <v>0.2160434722900391</v>
       </c>
     </row>
     <row r="75">
@@ -2072,13 +2072,13 @@
         <v>25</v>
       </c>
       <c r="D75" t="n">
-        <v>0.951</v>
+        <v>0.983</v>
       </c>
       <c r="E75" t="n">
-        <v>0.049</v>
+        <v>0.017</v>
       </c>
       <c r="F75" t="n">
-        <v>0.21864914894104</v>
+        <v>0.2226972579956055</v>
       </c>
     </row>
     <row r="76">
@@ -2094,13 +2094,13 @@
         <v>25</v>
       </c>
       <c r="D76" t="n">
-        <v>0.966</v>
+        <v>1</v>
       </c>
       <c r="E76" t="n">
-        <v>0.034</v>
+        <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2187445163726807</v>
+        <v>0.2216298580169678</v>
       </c>
     </row>
     <row r="77">
@@ -2116,13 +2116,13 @@
         <v>25</v>
       </c>
       <c r="D77" t="n">
-        <v>0.294</v>
+        <v>0.268</v>
       </c>
       <c r="E77" t="n">
-        <v>0.706</v>
+        <v>0.732</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2186539173126221</v>
+        <v>0.225304126739502</v>
       </c>
     </row>
     <row r="78">
@@ -2138,13 +2138,13 @@
         <v>25</v>
       </c>
       <c r="D78" t="n">
-        <v>0.161</v>
+        <v>0.535</v>
       </c>
       <c r="E78" t="n">
-        <v>0.839</v>
+        <v>0.465</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2187423706054688</v>
+        <v>0.2325074672698975</v>
       </c>
     </row>
     <row r="79">
@@ -2160,13 +2160,13 @@
         <v>25</v>
       </c>
       <c r="D79" t="n">
-        <v>0.877</v>
+        <v>0.622</v>
       </c>
       <c r="E79" t="n">
-        <v>0.123</v>
+        <v>0.378</v>
       </c>
       <c r="F79" t="n">
-        <v>0.2186980247497559</v>
+        <v>0.2236850261688232</v>
       </c>
     </row>
     <row r="80">
@@ -2182,13 +2182,13 @@
         <v>25</v>
       </c>
       <c r="D80" t="n">
-        <v>0.572</v>
+        <v>0.705</v>
       </c>
       <c r="E80" t="n">
-        <v>0.428</v>
+        <v>0.295</v>
       </c>
       <c r="F80" t="n">
-        <v>0.2343175411224365</v>
+        <v>0.222783088684082</v>
       </c>
     </row>
     <row r="81">
@@ -2204,13 +2204,13 @@
         <v>25</v>
       </c>
       <c r="D81" t="n">
-        <v>0.695</v>
+        <v>0.654</v>
       </c>
       <c r="E81" t="n">
-        <v>0.305</v>
+        <v>0.346</v>
       </c>
       <c r="F81" t="n">
-        <v>0.2187063694000244</v>
+        <v>0.2204570770263672</v>
       </c>
     </row>
     <row r="82">
@@ -2226,13 +2226,13 @@
         <v>25</v>
       </c>
       <c r="D82" t="n">
-        <v>0.504</v>
+        <v>0.628</v>
       </c>
       <c r="E82" t="n">
-        <v>0.496</v>
+        <v>0.372</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2186887264251709</v>
+        <v>0.2157690525054932</v>
       </c>
     </row>
     <row r="83">
@@ -2248,13 +2248,13 @@
         <v>25</v>
       </c>
       <c r="D83" t="n">
-        <v>0.958</v>
+        <v>0.433</v>
       </c>
       <c r="E83" t="n">
-        <v>0.042</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="F83" t="n">
-        <v>0.2187027931213379</v>
+        <v>0.2224600315093994</v>
       </c>
     </row>
     <row r="84">
@@ -2270,13 +2270,13 @@
         <v>25</v>
       </c>
       <c r="D84" t="n">
-        <v>0.472</v>
+        <v>0.313</v>
       </c>
       <c r="E84" t="n">
-        <v>0.528</v>
+        <v>0.6870000000000001</v>
       </c>
       <c r="F84" t="n">
-        <v>0.2343199253082275</v>
+        <v>0.2233648300170898</v>
       </c>
     </row>
     <row r="85">
@@ -2292,13 +2292,13 @@
         <v>25</v>
       </c>
       <c r="D85" t="n">
-        <v>0.901</v>
+        <v>0.852</v>
       </c>
       <c r="E85" t="n">
-        <v>0.099</v>
+        <v>0.148</v>
       </c>
       <c r="F85" t="n">
-        <v>0.2186999320983887</v>
+        <v>0.2224650382995605</v>
       </c>
     </row>
     <row r="86">
@@ -2314,13 +2314,13 @@
         <v>25</v>
       </c>
       <c r="D86" t="n">
-        <v>0.586</v>
+        <v>0.595</v>
       </c>
       <c r="E86" t="n">
-        <v>0.414</v>
+        <v>0.405</v>
       </c>
       <c r="F86" t="n">
-        <v>0.2186956405639648</v>
+        <v>0.2323131561279297</v>
       </c>
     </row>
     <row r="87">
@@ -2336,13 +2336,13 @@
         <v>25</v>
       </c>
       <c r="D87" t="n">
-        <v>0.387</v>
+        <v>0.425</v>
       </c>
       <c r="E87" t="n">
-        <v>0.613</v>
+        <v>0.575</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2343189716339111</v>
+        <v>0.222618579864502</v>
       </c>
     </row>
     <row r="88">
@@ -2358,13 +2358,13 @@
         <v>25</v>
       </c>
       <c r="D88" t="n">
-        <v>0.783</v>
+        <v>0.503</v>
       </c>
       <c r="E88" t="n">
-        <v>0.217</v>
+        <v>0.497</v>
       </c>
       <c r="F88" t="n">
-        <v>0.2187004089355469</v>
+        <v>0.2325046062469482</v>
       </c>
     </row>
     <row r="89">
@@ -2380,13 +2380,13 @@
         <v>25</v>
       </c>
       <c r="D89" t="n">
-        <v>0.407</v>
+        <v>0.879</v>
       </c>
       <c r="E89" t="n">
-        <v>0.593</v>
+        <v>0.121</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2187044620513916</v>
+        <v>0.2237091064453125</v>
       </c>
     </row>
     <row r="90">
@@ -2402,13 +2402,13 @@
         <v>25</v>
       </c>
       <c r="D90" t="n">
-        <v>0.736</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="E90" t="n">
-        <v>0.264</v>
+        <v>0.436</v>
       </c>
       <c r="F90" t="n">
-        <v>0.2342696189880371</v>
+        <v>0.2222957611083984</v>
       </c>
     </row>
     <row r="91">
@@ -2424,13 +2424,13 @@
         <v>25</v>
       </c>
       <c r="D91" t="n">
-        <v>0.705</v>
+        <v>0.573</v>
       </c>
       <c r="E91" t="n">
-        <v>0.295</v>
+        <v>0.427</v>
       </c>
       <c r="F91" t="n">
-        <v>0.2031180858612061</v>
+        <v>0.2292194366455078</v>
       </c>
     </row>
     <row r="92">
@@ -2446,13 +2446,13 @@
         <v>25</v>
       </c>
       <c r="D92" t="n">
-        <v>0.5580000000000001</v>
+        <v>0.834</v>
       </c>
       <c r="E92" t="n">
-        <v>0.442</v>
+        <v>0.166</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2343230247497559</v>
+        <v>0.2227916717529297</v>
       </c>
     </row>
     <row r="93">
@@ -2468,13 +2468,13 @@
         <v>25</v>
       </c>
       <c r="D93" t="n">
-        <v>0.287</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="E93" t="n">
-        <v>0.713</v>
+        <v>0.188</v>
       </c>
       <c r="F93" t="n">
-        <v>0.2186970710754395</v>
+        <v>0.2272853851318359</v>
       </c>
     </row>
     <row r="94">
@@ -2490,13 +2490,13 @@
         <v>25</v>
       </c>
       <c r="D94" t="n">
-        <v>0.529</v>
+        <v>0.252</v>
       </c>
       <c r="E94" t="n">
-        <v>0.471</v>
+        <v>0.748</v>
       </c>
       <c r="F94" t="n">
-        <v>0.218656063079834</v>
+        <v>0.2226216793060303</v>
       </c>
     </row>
     <row r="95">
@@ -2512,13 +2512,13 @@
         <v>25</v>
       </c>
       <c r="D95" t="n">
-        <v>0.458</v>
+        <v>0.532</v>
       </c>
       <c r="E95" t="n">
-        <v>0.542</v>
+        <v>0.468</v>
       </c>
       <c r="F95" t="n">
-        <v>0.2187411785125732</v>
+        <v>0.2161240577697754</v>
       </c>
     </row>
     <row r="96">
@@ -2534,13 +2534,13 @@
         <v>25</v>
       </c>
       <c r="D96" t="n">
-        <v>0.973</v>
+        <v>0.362</v>
       </c>
       <c r="E96" t="n">
-        <v>0.027</v>
+        <v>0.638</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2342784404754639</v>
+        <v>0.2159979343414307</v>
       </c>
     </row>
     <row r="97">
@@ -2556,13 +2556,13 @@
         <v>25</v>
       </c>
       <c r="D97" t="n">
-        <v>0.615</v>
+        <v>0.647</v>
       </c>
       <c r="E97" t="n">
-        <v>0.385</v>
+        <v>0.353</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2187418937683105</v>
+        <v>0.2264444828033447</v>
       </c>
     </row>
     <row r="98">
@@ -2578,13 +2578,13 @@
         <v>25</v>
       </c>
       <c r="D98" t="n">
-        <v>0.606</v>
+        <v>0.433</v>
       </c>
       <c r="E98" t="n">
-        <v>0.394</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="F98" t="n">
-        <v>0.2186973094940186</v>
+        <v>0.2212343215942383</v>
       </c>
     </row>
     <row r="99">
@@ -2600,13 +2600,13 @@
         <v>25</v>
       </c>
       <c r="D99" t="n">
-        <v>0.458</v>
+        <v>0.786</v>
       </c>
       <c r="E99" t="n">
-        <v>0.542</v>
+        <v>0.214</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2187058925628662</v>
+        <v>0.2161719799041748</v>
       </c>
     </row>
     <row r="100">
@@ -2622,13 +2622,13 @@
         <v>25</v>
       </c>
       <c r="D100" t="n">
-        <v>0.718</v>
+        <v>0.401</v>
       </c>
       <c r="E100" t="n">
-        <v>0.282</v>
+        <v>0.599</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2186927795410156</v>
+        <v>0.2161731719970703</v>
       </c>
     </row>
     <row r="101">
@@ -2644,13 +2644,13 @@
         <v>25</v>
       </c>
       <c r="D101" t="n">
-        <v>0.784</v>
+        <v>0.721</v>
       </c>
       <c r="E101" t="n">
-        <v>0.216</v>
+        <v>0.279</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2186999320983887</v>
+        <v>0.2338113784790039</v>
       </c>
     </row>
     <row r="102">
@@ -2666,13 +2666,13 @@
         <v>25</v>
       </c>
       <c r="D102" t="n">
-        <v>0.987012987012987</v>
+        <v>0.986013986013986</v>
       </c>
       <c r="E102" t="n">
-        <v>0.01298701298701299</v>
+        <v>0.01398601398601399</v>
       </c>
       <c r="F102" t="n">
-        <v>21.71875</v>
+        <v>42.34375</v>
       </c>
     </row>
     <row r="103">
@@ -2688,13 +2688,13 @@
         <v>25</v>
       </c>
       <c r="D103" t="n">
-        <v>0.978021978021978</v>
+        <v>0.983016983016983</v>
       </c>
       <c r="E103" t="n">
-        <v>0.02197802197802198</v>
+        <v>0.01698301698301698</v>
       </c>
       <c r="F103" t="n">
-        <v>21.609375</v>
+        <v>42.8125</v>
       </c>
     </row>
     <row r="104">
@@ -2710,13 +2710,13 @@
         <v>25</v>
       </c>
       <c r="D104" t="n">
-        <v>0.99000999000999</v>
+        <v>0.986013986013986</v>
       </c>
       <c r="E104" t="n">
-        <v>0.00999000999000999</v>
+        <v>0.01398601398601399</v>
       </c>
       <c r="F104" t="n">
-        <v>21.046875</v>
+        <v>43.28125</v>
       </c>
     </row>
     <row r="105">
@@ -2732,13 +2732,13 @@
         <v>25</v>
       </c>
       <c r="D105" t="n">
-        <v>0.9920079920079921</v>
+        <v>0.9890109890109891</v>
       </c>
       <c r="E105" t="n">
-        <v>0.007992007992007992</v>
+        <v>0.01098901098901099</v>
       </c>
       <c r="F105" t="n">
-        <v>21.71875</v>
+        <v>41.71875</v>
       </c>
     </row>
     <row r="106">
@@ -2754,13 +2754,13 @@
         <v>25</v>
       </c>
       <c r="D106" t="n">
-        <v>0.988011988011988</v>
+        <v>0.987012987012987</v>
       </c>
       <c r="E106" t="n">
-        <v>0.01198801198801199</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="F106" t="n">
-        <v>21.265625</v>
+        <v>43.8125</v>
       </c>
     </row>
     <row r="107">
@@ -2776,13 +2776,13 @@
         <v>25</v>
       </c>
       <c r="D107" t="n">
-        <v>0.987012987012987</v>
+        <v>0.99000999000999</v>
       </c>
       <c r="E107" t="n">
-        <v>0.01298701298701299</v>
+        <v>0.00999000999000999</v>
       </c>
       <c r="F107" t="n">
-        <v>21.671875</v>
+        <v>42.65625</v>
       </c>
     </row>
     <row r="108">
@@ -2798,13 +2798,13 @@
         <v>25</v>
       </c>
       <c r="D108" t="n">
-        <v>0.991008991008991</v>
+        <v>0.988011988011988</v>
       </c>
       <c r="E108" t="n">
-        <v>0.008991008991008992</v>
+        <v>0.01198801198801199</v>
       </c>
       <c r="F108" t="n">
-        <v>22.09375</v>
+        <v>44.171875</v>
       </c>
     </row>
     <row r="109">
@@ -2820,13 +2820,13 @@
         <v>25</v>
       </c>
       <c r="D109" t="n">
-        <v>0.983016983016983</v>
+        <v>0.967032967032967</v>
       </c>
       <c r="E109" t="n">
-        <v>0.01698301698301698</v>
+        <v>0.03296703296703297</v>
       </c>
       <c r="F109" t="n">
-        <v>21.4375</v>
+        <v>42.375</v>
       </c>
     </row>
     <row r="110">
@@ -2842,13 +2842,13 @@
         <v>25</v>
       </c>
       <c r="D110" t="n">
-        <v>0.987012987012987</v>
+        <v>0.9820179820179821</v>
       </c>
       <c r="E110" t="n">
-        <v>0.01298701298701299</v>
+        <v>0.01798201798201798</v>
       </c>
       <c r="F110" t="n">
-        <v>22.3125</v>
+        <v>42.96875</v>
       </c>
     </row>
     <row r="111">
@@ -2864,13 +2864,13 @@
         <v>25</v>
       </c>
       <c r="D111" t="n">
-        <v>0.987012987012987</v>
+        <v>0.983016983016983</v>
       </c>
       <c r="E111" t="n">
-        <v>0.01298701298701299</v>
+        <v>0.01698301698301698</v>
       </c>
       <c r="F111" t="n">
-        <v>22</v>
+        <v>42.75</v>
       </c>
     </row>
     <row r="112">
@@ -2886,13 +2886,13 @@
         <v>25</v>
       </c>
       <c r="D112" t="n">
-        <v>0.978021978021978</v>
+        <v>0.991008991008991</v>
       </c>
       <c r="E112" t="n">
-        <v>0.02197802197802198</v>
+        <v>0.008991008991008992</v>
       </c>
       <c r="F112" t="n">
-        <v>21.65625</v>
+        <v>44.109375</v>
       </c>
     </row>
     <row r="113">
@@ -2908,13 +2908,13 @@
         <v>25</v>
       </c>
       <c r="D113" t="n">
-        <v>0.985014985014985</v>
+        <v>0.981018981018981</v>
       </c>
       <c r="E113" t="n">
-        <v>0.01498501498501499</v>
+        <v>0.01898101898101898</v>
       </c>
       <c r="F113" t="n">
-        <v>21.734375</v>
+        <v>44.859375</v>
       </c>
     </row>
     <row r="114">
@@ -2930,13 +2930,13 @@
         <v>25</v>
       </c>
       <c r="D114" t="n">
-        <v>0.985014985014985</v>
+        <v>0.9920079920079921</v>
       </c>
       <c r="E114" t="n">
-        <v>0.01498501498501499</v>
+        <v>0.007992007992007992</v>
       </c>
       <c r="F114" t="n">
-        <v>22.140625</v>
+        <v>42.40625</v>
       </c>
     </row>
     <row r="115">
@@ -2952,13 +2952,13 @@
         <v>25</v>
       </c>
       <c r="D115" t="n">
-        <v>0.99000999000999</v>
+        <v>0.981018981018981</v>
       </c>
       <c r="E115" t="n">
-        <v>0.00999000999000999</v>
+        <v>0.01898101898101898</v>
       </c>
       <c r="F115" t="n">
-        <v>22.578125</v>
+        <v>44.359375</v>
       </c>
     </row>
     <row r="116">
@@ -2974,13 +2974,13 @@
         <v>25</v>
       </c>
       <c r="D116" t="n">
-        <v>0.9790209790209791</v>
+        <v>0.991008991008991</v>
       </c>
       <c r="E116" t="n">
-        <v>0.02097902097902098</v>
+        <v>0.008991008991008992</v>
       </c>
       <c r="F116" t="n">
-        <v>21.953125</v>
+        <v>42.0625</v>
       </c>
     </row>
     <row r="117">
@@ -2996,13 +2996,13 @@
         <v>25</v>
       </c>
       <c r="D117" t="n">
-        <v>0.993006993006993</v>
+        <v>0.991008991008991</v>
       </c>
       <c r="E117" t="n">
-        <v>0.006993006993006993</v>
+        <v>0.008991008991008992</v>
       </c>
       <c r="F117" t="n">
-        <v>21.84375</v>
+        <v>43.625</v>
       </c>
     </row>
     <row r="118">
@@ -3018,13 +3018,13 @@
         <v>25</v>
       </c>
       <c r="D118" t="n">
-        <v>0.9820179820179821</v>
+        <v>0.994005994005994</v>
       </c>
       <c r="E118" t="n">
-        <v>0.01798201798201798</v>
+        <v>0.005994005994005994</v>
       </c>
       <c r="F118" t="n">
-        <v>21.421875</v>
+        <v>41.09375</v>
       </c>
     </row>
     <row r="119">
@@ -3040,13 +3040,13 @@
         <v>25</v>
       </c>
       <c r="D119" t="n">
-        <v>0.9890109890109891</v>
+        <v>0.977022977022977</v>
       </c>
       <c r="E119" t="n">
-        <v>0.01098901098901099</v>
+        <v>0.02297702297702298</v>
       </c>
       <c r="F119" t="n">
-        <v>21.84375</v>
+        <v>42.5625</v>
       </c>
     </row>
     <row r="120">
@@ -3062,13 +3062,13 @@
         <v>25</v>
       </c>
       <c r="D120" t="n">
-        <v>0.984015984015984</v>
+        <v>0.985014985014985</v>
       </c>
       <c r="E120" t="n">
-        <v>0.01598401598401598</v>
+        <v>0.01498501498501499</v>
       </c>
       <c r="F120" t="n">
-        <v>21.828125</v>
+        <v>43.109375</v>
       </c>
     </row>
     <row r="121">
@@ -3084,13 +3084,13 @@
         <v>25</v>
       </c>
       <c r="D121" t="n">
-        <v>0.978021978021978</v>
+        <v>0.988011988011988</v>
       </c>
       <c r="E121" t="n">
-        <v>0.02197802197802198</v>
+        <v>0.01198801198801199</v>
       </c>
       <c r="F121" t="n">
-        <v>21.9375</v>
+        <v>41.765625</v>
       </c>
     </row>
     <row r="122">
@@ -3106,13 +3106,13 @@
         <v>25</v>
       </c>
       <c r="D122" t="n">
-        <v>0.983016983016983</v>
+        <v>0.993006993006993</v>
       </c>
       <c r="E122" t="n">
-        <v>0.01698301698301698</v>
+        <v>0.006993006993006993</v>
       </c>
       <c r="F122" t="n">
-        <v>21.90625</v>
+        <v>41.390625</v>
       </c>
     </row>
     <row r="123">
@@ -3128,13 +3128,13 @@
         <v>25</v>
       </c>
       <c r="D123" t="n">
-        <v>0.986013986013986</v>
+        <v>0.985014985014985</v>
       </c>
       <c r="E123" t="n">
-        <v>0.01398601398601399</v>
+        <v>0.01498501498501499</v>
       </c>
       <c r="F123" t="n">
-        <v>22.40625</v>
+        <v>41.953125</v>
       </c>
     </row>
     <row r="124">
@@ -3150,13 +3150,13 @@
         <v>25</v>
       </c>
       <c r="D124" t="n">
-        <v>0.984015984015984</v>
+        <v>0.987012987012987</v>
       </c>
       <c r="E124" t="n">
-        <v>0.01598401598401598</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="F124" t="n">
-        <v>21.734375</v>
+        <v>42.4375</v>
       </c>
     </row>
     <row r="125">
@@ -3172,13 +3172,13 @@
         <v>25</v>
       </c>
       <c r="D125" t="n">
-        <v>0.983016983016983</v>
+        <v>0.984015984015984</v>
       </c>
       <c r="E125" t="n">
-        <v>0.01698301698301698</v>
+        <v>0.01598401598401598</v>
       </c>
       <c r="F125" t="n">
-        <v>20.453125</v>
+        <v>41.796875</v>
       </c>
     </row>
     <row r="126">
@@ -3200,7 +3200,7 @@
         <v>0.01098901098901099</v>
       </c>
       <c r="F126" t="n">
-        <v>20.890625</v>
+        <v>40.328125</v>
       </c>
     </row>
     <row r="127">
@@ -3216,13 +3216,13 @@
         <v>25</v>
       </c>
       <c r="D127" t="n">
-        <v>0.6663336663336663</v>
+        <v>0.6123876123876124</v>
       </c>
       <c r="E127" t="n">
-        <v>0.3336663336663337</v>
+        <v>0.3876123876123876</v>
       </c>
       <c r="F127" t="n">
-        <v>21.671875</v>
+        <v>43.453125</v>
       </c>
     </row>
     <row r="128">
@@ -3238,13 +3238,13 @@
         <v>25</v>
       </c>
       <c r="D128" t="n">
-        <v>0.7062937062937062</v>
+        <v>0.6243756243756243</v>
       </c>
       <c r="E128" t="n">
-        <v>0.2937062937062937</v>
+        <v>0.3756243756243756</v>
       </c>
       <c r="F128" t="n">
-        <v>22.078125</v>
+        <v>44.890625</v>
       </c>
     </row>
     <row r="129">
@@ -3260,13 +3260,13 @@
         <v>25</v>
       </c>
       <c r="D129" t="n">
-        <v>0.6733266733266733</v>
+        <v>0.6543456543456544</v>
       </c>
       <c r="E129" t="n">
-        <v>0.3266733266733267</v>
+        <v>0.3456543456543457</v>
       </c>
       <c r="F129" t="n">
-        <v>23.53125</v>
+        <v>43.96875</v>
       </c>
     </row>
     <row r="130">
@@ -3282,13 +3282,13 @@
         <v>25</v>
       </c>
       <c r="D130" t="n">
-        <v>0.6923076923076923</v>
+        <v>0.6673326673326674</v>
       </c>
       <c r="E130" t="n">
-        <v>0.3076923076923077</v>
+        <v>0.3326673326673327</v>
       </c>
       <c r="F130" t="n">
-        <v>22.5</v>
+        <v>44.78125</v>
       </c>
     </row>
     <row r="131">
@@ -3304,13 +3304,13 @@
         <v>25</v>
       </c>
       <c r="D131" t="n">
-        <v>0.6693306693306693</v>
+        <v>0.6253746253746254</v>
       </c>
       <c r="E131" t="n">
-        <v>0.3306693306693307</v>
+        <v>0.3746253746253747</v>
       </c>
       <c r="F131" t="n">
-        <v>22.859375</v>
+        <v>42.625</v>
       </c>
     </row>
     <row r="132">
@@ -3326,13 +3326,13 @@
         <v>25</v>
       </c>
       <c r="D132" t="n">
-        <v>0.7132867132867133</v>
+        <v>0.6103896103896104</v>
       </c>
       <c r="E132" t="n">
-        <v>0.2867132867132867</v>
+        <v>0.3896103896103896</v>
       </c>
       <c r="F132" t="n">
-        <v>22.609375</v>
+        <v>43.59375</v>
       </c>
     </row>
     <row r="133">
@@ -3348,13 +3348,13 @@
         <v>25</v>
       </c>
       <c r="D133" t="n">
-        <v>0.6763236763236763</v>
+        <v>0.6483516483516484</v>
       </c>
       <c r="E133" t="n">
-        <v>0.3236763236763237</v>
+        <v>0.3516483516483517</v>
       </c>
       <c r="F133" t="n">
-        <v>22.515625</v>
+        <v>44.84375</v>
       </c>
     </row>
     <row r="134">
@@ -3370,13 +3370,13 @@
         <v>25</v>
       </c>
       <c r="D134" t="n">
-        <v>0.6973026973026973</v>
+        <v>0.6213786213786214</v>
       </c>
       <c r="E134" t="n">
-        <v>0.3026973026973027</v>
+        <v>0.3786213786213786</v>
       </c>
       <c r="F134" t="n">
-        <v>21.96875</v>
+        <v>43.59375</v>
       </c>
     </row>
     <row r="135">
@@ -3392,13 +3392,13 @@
         <v>25</v>
       </c>
       <c r="D135" t="n">
-        <v>0.6783216783216783</v>
+        <v>0.6263736263736264</v>
       </c>
       <c r="E135" t="n">
-        <v>0.3216783216783217</v>
+        <v>0.3736263736263736</v>
       </c>
       <c r="F135" t="n">
-        <v>22.390625</v>
+        <v>45.28125</v>
       </c>
     </row>
     <row r="136">
@@ -3414,13 +3414,13 @@
         <v>25</v>
       </c>
       <c r="D136" t="n">
-        <v>0.7002997002997003</v>
+        <v>0.6223776223776224</v>
       </c>
       <c r="E136" t="n">
-        <v>0.2997002997002997</v>
+        <v>0.3776223776223776</v>
       </c>
       <c r="F136" t="n">
-        <v>22.046875</v>
+        <v>44.046875</v>
       </c>
     </row>
     <row r="137">
@@ -3436,13 +3436,13 @@
         <v>25</v>
       </c>
       <c r="D137" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.6243756243756243</v>
       </c>
       <c r="E137" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.3756243756243756</v>
       </c>
       <c r="F137" t="n">
-        <v>22.625</v>
+        <v>44.515625</v>
       </c>
     </row>
     <row r="138">
@@ -3458,13 +3458,13 @@
         <v>25</v>
       </c>
       <c r="D138" t="n">
-        <v>0.6963036963036963</v>
+        <v>0.6333666333666333</v>
       </c>
       <c r="E138" t="n">
-        <v>0.3036963036963037</v>
+        <v>0.3666333666333667</v>
       </c>
       <c r="F138" t="n">
-        <v>22.8125</v>
+        <v>44.65625</v>
       </c>
     </row>
     <row r="139">
@@ -3480,13 +3480,13 @@
         <v>25</v>
       </c>
       <c r="D139" t="n">
-        <v>0.7062937062937062</v>
+        <v>0.6143856143856143</v>
       </c>
       <c r="E139" t="n">
-        <v>0.2937062937062937</v>
+        <v>0.3856143856143856</v>
       </c>
       <c r="F139" t="n">
-        <v>23.265625</v>
+        <v>43.1875</v>
       </c>
     </row>
     <row r="140">
@@ -3502,13 +3502,13 @@
         <v>25</v>
       </c>
       <c r="D140" t="n">
-        <v>0.6773226773226774</v>
+        <v>0.6533466533466533</v>
       </c>
       <c r="E140" t="n">
-        <v>0.3226773226773227</v>
+        <v>0.3466533466533466</v>
       </c>
       <c r="F140" t="n">
-        <v>22.34375</v>
+        <v>45.4375</v>
       </c>
     </row>
     <row r="141">
@@ -3524,13 +3524,13 @@
         <v>25</v>
       </c>
       <c r="D141" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.6213786213786214</v>
       </c>
       <c r="E141" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.3786213786213786</v>
       </c>
       <c r="F141" t="n">
-        <v>22.6875</v>
+        <v>45.765625</v>
       </c>
     </row>
     <row r="142">
@@ -3546,13 +3546,13 @@
         <v>25</v>
       </c>
       <c r="D142" t="n">
-        <v>0.6913086913086913</v>
+        <v>0.6313686313686314</v>
       </c>
       <c r="E142" t="n">
-        <v>0.3086913086913087</v>
+        <v>0.3686313686313686</v>
       </c>
       <c r="F142" t="n">
-        <v>22.359375</v>
+        <v>43.265625</v>
       </c>
     </row>
     <row r="143">
@@ -3568,13 +3568,13 @@
         <v>25</v>
       </c>
       <c r="D143" t="n">
-        <v>0.6823176823176823</v>
+        <v>0.6593406593406593</v>
       </c>
       <c r="E143" t="n">
-        <v>0.3176823176823177</v>
+        <v>0.3406593406593407</v>
       </c>
       <c r="F143" t="n">
-        <v>22.453125</v>
+        <v>43.890625</v>
       </c>
     </row>
     <row r="144">
@@ -3590,13 +3590,13 @@
         <v>25</v>
       </c>
       <c r="D144" t="n">
-        <v>0.6903096903096904</v>
+        <v>0.6263736263736264</v>
       </c>
       <c r="E144" t="n">
-        <v>0.3096903096903097</v>
+        <v>0.3736263736263736</v>
       </c>
       <c r="F144" t="n">
-        <v>22.328125</v>
+        <v>44.671875</v>
       </c>
     </row>
     <row r="145">
@@ -3612,13 +3612,13 @@
         <v>25</v>
       </c>
       <c r="D145" t="n">
-        <v>0.7012987012987013</v>
+        <v>0.6393606393606394</v>
       </c>
       <c r="E145" t="n">
-        <v>0.2987012987012987</v>
+        <v>0.3606393606393606</v>
       </c>
       <c r="F145" t="n">
-        <v>22.109375</v>
+        <v>42.78125</v>
       </c>
     </row>
     <row r="146">
@@ -3634,13 +3634,13 @@
         <v>25</v>
       </c>
       <c r="D146" t="n">
-        <v>0.6833166833166833</v>
+        <v>0.6063936063936064</v>
       </c>
       <c r="E146" t="n">
-        <v>0.3166833166833167</v>
+        <v>0.3936063936063936</v>
       </c>
       <c r="F146" t="n">
-        <v>23.390625</v>
+        <v>43.6875</v>
       </c>
     </row>
     <row r="147">
@@ -3656,13 +3656,13 @@
         <v>25</v>
       </c>
       <c r="D147" t="n">
-        <v>0.7072927072927073</v>
+        <v>0.6373626373626373</v>
       </c>
       <c r="E147" t="n">
-        <v>0.2927072927072927</v>
+        <v>0.3626373626373626</v>
       </c>
       <c r="F147" t="n">
-        <v>22.546875</v>
+        <v>44.65625</v>
       </c>
     </row>
     <row r="148">
@@ -3678,13 +3678,13 @@
         <v>25</v>
       </c>
       <c r="D148" t="n">
-        <v>0.6623376623376623</v>
+        <v>0.6463536463536463</v>
       </c>
       <c r="E148" t="n">
-        <v>0.3376623376623377</v>
+        <v>0.3536463536463537</v>
       </c>
       <c r="F148" t="n">
-        <v>21.8125</v>
+        <v>44.71875</v>
       </c>
     </row>
     <row r="149">
@@ -3700,13 +3700,13 @@
         <v>25</v>
       </c>
       <c r="D149" t="n">
-        <v>0.6933066933066933</v>
+        <v>0.6373626373626373</v>
       </c>
       <c r="E149" t="n">
-        <v>0.3066933066933067</v>
+        <v>0.3626373626373626</v>
       </c>
       <c r="F149" t="n">
-        <v>22.4375</v>
+        <v>44.578125</v>
       </c>
     </row>
     <row r="150">
@@ -3722,13 +3722,13 @@
         <v>25</v>
       </c>
       <c r="D150" t="n">
-        <v>0.6683316683316683</v>
+        <v>0.6393606393606394</v>
       </c>
       <c r="E150" t="n">
-        <v>0.3316683316683317</v>
+        <v>0.3606393606393606</v>
       </c>
       <c r="F150" t="n">
-        <v>21.640625</v>
+        <v>43.109375</v>
       </c>
     </row>
     <row r="151">
@@ -3744,13 +3744,13 @@
         <v>25</v>
       </c>
       <c r="D151" t="n">
-        <v>0.7292707292707292</v>
+        <v>0.6433566433566433</v>
       </c>
       <c r="E151" t="n">
-        <v>0.2707292707292707</v>
+        <v>0.3566433566433567</v>
       </c>
       <c r="F151" t="n">
-        <v>22.03125</v>
+        <v>42.375</v>
       </c>
     </row>
     <row r="152">
@@ -3766,13 +3766,13 @@
         <v>25</v>
       </c>
       <c r="D152" t="n">
-        <v>0.983016983016983</v>
+        <v>0.986013986013986</v>
       </c>
       <c r="E152" t="n">
-        <v>0.01698301698301698</v>
+        <v>0.01398601398601399</v>
       </c>
       <c r="F152" t="n">
-        <v>24.875</v>
+        <v>49.28125</v>
       </c>
     </row>
     <row r="153">
@@ -3788,13 +3788,13 @@
         <v>25</v>
       </c>
       <c r="D153" t="n">
-        <v>0.9890109890109891</v>
+        <v>0.984015984015984</v>
       </c>
       <c r="E153" t="n">
-        <v>0.01098901098901099</v>
+        <v>0.01598401598401598</v>
       </c>
       <c r="F153" t="n">
-        <v>25.03125</v>
+        <v>48.234375</v>
       </c>
     </row>
     <row r="154">
@@ -3810,13 +3810,13 @@
         <v>25</v>
       </c>
       <c r="D154" t="n">
-        <v>0.99000999000999</v>
+        <v>0.991008991008991</v>
       </c>
       <c r="E154" t="n">
-        <v>0.00999000999000999</v>
+        <v>0.008991008991008992</v>
       </c>
       <c r="F154" t="n">
-        <v>25.09375</v>
+        <v>48.53125</v>
       </c>
     </row>
     <row r="155">
@@ -3832,13 +3832,13 @@
         <v>25</v>
       </c>
       <c r="D155" t="n">
-        <v>0.983016983016983</v>
+        <v>0.986013986013986</v>
       </c>
       <c r="E155" t="n">
-        <v>0.01698301698301698</v>
+        <v>0.01398601398601399</v>
       </c>
       <c r="F155" t="n">
-        <v>25.140625</v>
+        <v>48.125</v>
       </c>
     </row>
     <row r="156">
@@ -3854,13 +3854,13 @@
         <v>25</v>
       </c>
       <c r="D156" t="n">
-        <v>0.988011988011988</v>
+        <v>0.983016983016983</v>
       </c>
       <c r="E156" t="n">
-        <v>0.01198801198801199</v>
+        <v>0.01698301698301698</v>
       </c>
       <c r="F156" t="n">
-        <v>24.765625</v>
+        <v>47.546875</v>
       </c>
     </row>
     <row r="157">
@@ -3882,7 +3882,7 @@
         <v>0.01298701298701299</v>
       </c>
       <c r="F157" t="n">
-        <v>24.390625</v>
+        <v>48.21875</v>
       </c>
     </row>
     <row r="158">
@@ -3898,13 +3898,13 @@
         <v>25</v>
       </c>
       <c r="D158" t="n">
-        <v>0.98001998001998</v>
+        <v>0.987012987012987</v>
       </c>
       <c r="E158" t="n">
-        <v>0.01998001998001998</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="F158" t="n">
-        <v>24.78125</v>
+        <v>48.5625</v>
       </c>
     </row>
     <row r="159">
@@ -3920,13 +3920,13 @@
         <v>25</v>
       </c>
       <c r="D159" t="n">
-        <v>0.99000999000999</v>
+        <v>0.995004995004995</v>
       </c>
       <c r="E159" t="n">
-        <v>0.00999000999000999</v>
+        <v>0.004995004995004995</v>
       </c>
       <c r="F159" t="n">
-        <v>24.828125</v>
+        <v>47.609375</v>
       </c>
     </row>
     <row r="160">
@@ -3942,13 +3942,13 @@
         <v>25</v>
       </c>
       <c r="D160" t="n">
-        <v>0.984015984015984</v>
+        <v>0.991008991008991</v>
       </c>
       <c r="E160" t="n">
-        <v>0.01598401598401598</v>
+        <v>0.008991008991008992</v>
       </c>
       <c r="F160" t="n">
-        <v>24.59375</v>
+        <v>48.5625</v>
       </c>
     </row>
     <row r="161">
@@ -3964,13 +3964,13 @@
         <v>25</v>
       </c>
       <c r="D161" t="n">
-        <v>0.988011988011988</v>
+        <v>0.987012987012987</v>
       </c>
       <c r="E161" t="n">
-        <v>0.01198801198801199</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="F161" t="n">
-        <v>24.84375</v>
+        <v>48.21875</v>
       </c>
     </row>
     <row r="162">
@@ -3986,13 +3986,13 @@
         <v>25</v>
       </c>
       <c r="D162" t="n">
-        <v>0.9820179820179821</v>
+        <v>0.987012987012987</v>
       </c>
       <c r="E162" t="n">
-        <v>0.01798201798201798</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="F162" t="n">
-        <v>24.53125</v>
+        <v>49.96875</v>
       </c>
     </row>
     <row r="163">
@@ -4008,13 +4008,13 @@
         <v>25</v>
       </c>
       <c r="D163" t="n">
-        <v>0.988011988011988</v>
+        <v>0.987012987012987</v>
       </c>
       <c r="E163" t="n">
-        <v>0.01198801198801199</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="F163" t="n">
-        <v>25.203125</v>
+        <v>47.921875</v>
       </c>
     </row>
     <row r="164">
@@ -4030,13 +4030,13 @@
         <v>25</v>
       </c>
       <c r="D164" t="n">
-        <v>0.985014985014985</v>
+        <v>0.986013986013986</v>
       </c>
       <c r="E164" t="n">
-        <v>0.01498501498501499</v>
+        <v>0.01398601398601399</v>
       </c>
       <c r="F164" t="n">
-        <v>24.46875</v>
+        <v>50.328125</v>
       </c>
     </row>
     <row r="165">
@@ -4052,13 +4052,13 @@
         <v>25</v>
       </c>
       <c r="D165" t="n">
-        <v>0.99000999000999</v>
+        <v>0.9890109890109891</v>
       </c>
       <c r="E165" t="n">
-        <v>0.00999000999000999</v>
+        <v>0.01098901098901099</v>
       </c>
       <c r="F165" t="n">
-        <v>25.015625</v>
+        <v>48.796875</v>
       </c>
     </row>
     <row r="166">
@@ -4074,13 +4074,13 @@
         <v>25</v>
       </c>
       <c r="D166" t="n">
-        <v>0.985014985014985</v>
+        <v>0.983016983016983</v>
       </c>
       <c r="E166" t="n">
-        <v>0.01498501498501499</v>
+        <v>0.01698301698301698</v>
       </c>
       <c r="F166" t="n">
-        <v>25.296875</v>
+        <v>47.859375</v>
       </c>
     </row>
     <row r="167">
@@ -4096,13 +4096,13 @@
         <v>25</v>
       </c>
       <c r="D167" t="n">
-        <v>0.991008991008991</v>
+        <v>0.986013986013986</v>
       </c>
       <c r="E167" t="n">
-        <v>0.008991008991008992</v>
+        <v>0.01398601398601399</v>
       </c>
       <c r="F167" t="n">
-        <v>24.953125</v>
+        <v>48.84375</v>
       </c>
     </row>
     <row r="168">
@@ -4118,13 +4118,13 @@
         <v>25</v>
       </c>
       <c r="D168" t="n">
-        <v>0.985014985014985</v>
+        <v>0.986013986013986</v>
       </c>
       <c r="E168" t="n">
-        <v>0.01498501498501499</v>
+        <v>0.01398601398601399</v>
       </c>
       <c r="F168" t="n">
-        <v>24.078125</v>
+        <v>49.046875</v>
       </c>
     </row>
     <row r="169">
@@ -4140,13 +4140,13 @@
         <v>25</v>
       </c>
       <c r="D169" t="n">
-        <v>0.985014985014985</v>
+        <v>0.9920079920079921</v>
       </c>
       <c r="E169" t="n">
-        <v>0.01498501498501499</v>
+        <v>0.007992007992007992</v>
       </c>
       <c r="F169" t="n">
-        <v>25</v>
+        <v>49.5625</v>
       </c>
     </row>
     <row r="170">
@@ -4162,13 +4162,13 @@
         <v>25</v>
       </c>
       <c r="D170" t="n">
-        <v>0.987012987012987</v>
+        <v>0.986013986013986</v>
       </c>
       <c r="E170" t="n">
-        <v>0.01298701298701299</v>
+        <v>0.01398601398601399</v>
       </c>
       <c r="F170" t="n">
-        <v>25.125</v>
+        <v>48.078125</v>
       </c>
     </row>
     <row r="171">
@@ -4184,13 +4184,13 @@
         <v>25</v>
       </c>
       <c r="D171" t="n">
-        <v>0.9820179820179821</v>
+        <v>0.9790209790209791</v>
       </c>
       <c r="E171" t="n">
-        <v>0.01798201798201798</v>
+        <v>0.02097902097902098</v>
       </c>
       <c r="F171" t="n">
-        <v>25.1875</v>
+        <v>48.96875</v>
       </c>
     </row>
     <row r="172">
@@ -4212,7 +4212,7 @@
         <v>0.01298701298701299</v>
       </c>
       <c r="F172" t="n">
-        <v>25.796875</v>
+        <v>48.96875</v>
       </c>
     </row>
     <row r="173">
@@ -4228,13 +4228,13 @@
         <v>25</v>
       </c>
       <c r="D173" t="n">
-        <v>0.993006993006993</v>
+        <v>0.995004995004995</v>
       </c>
       <c r="E173" t="n">
-        <v>0.006993006993006993</v>
+        <v>0.004995004995004995</v>
       </c>
       <c r="F173" t="n">
-        <v>25.109375</v>
+        <v>48.40625</v>
       </c>
     </row>
     <row r="174">
@@ -4250,13 +4250,13 @@
         <v>25</v>
       </c>
       <c r="D174" t="n">
-        <v>0.985014985014985</v>
+        <v>0.983016983016983</v>
       </c>
       <c r="E174" t="n">
-        <v>0.01498501498501499</v>
+        <v>0.01698301698301698</v>
       </c>
       <c r="F174" t="n">
-        <v>24.1875</v>
+        <v>49</v>
       </c>
     </row>
     <row r="175">
@@ -4272,13 +4272,13 @@
         <v>25</v>
       </c>
       <c r="D175" t="n">
-        <v>0.986013986013986</v>
+        <v>0.983016983016983</v>
       </c>
       <c r="E175" t="n">
-        <v>0.01398601398601399</v>
+        <v>0.01698301698301698</v>
       </c>
       <c r="F175" t="n">
-        <v>23.921875</v>
+        <v>45.53125</v>
       </c>
     </row>
     <row r="176">
@@ -4294,13 +4294,13 @@
         <v>25</v>
       </c>
       <c r="D176" t="n">
-        <v>0.986013986013986</v>
+        <v>0.98001998001998</v>
       </c>
       <c r="E176" t="n">
-        <v>0.01398601398601399</v>
+        <v>0.01998001998001998</v>
       </c>
       <c r="F176" t="n">
-        <v>23.640625</v>
+        <v>48.34375</v>
       </c>
     </row>
     <row r="177">
@@ -4316,13 +4316,13 @@
         <v>25</v>
       </c>
       <c r="D177" t="n">
-        <v>0.6953046953046953</v>
+        <v>0.6273726273726273</v>
       </c>
       <c r="E177" t="n">
-        <v>0.3046953046953047</v>
+        <v>0.3726273726273726</v>
       </c>
       <c r="F177" t="n">
-        <v>25.640625</v>
+        <v>48.59375</v>
       </c>
     </row>
     <row r="178">
@@ -4338,13 +4338,13 @@
         <v>25</v>
       </c>
       <c r="D178" t="n">
-        <v>0.6953046953046953</v>
+        <v>0.6183816183816184</v>
       </c>
       <c r="E178" t="n">
-        <v>0.3046953046953047</v>
+        <v>0.3816183816183816</v>
       </c>
       <c r="F178" t="n">
-        <v>25.25</v>
+        <v>48.484375</v>
       </c>
     </row>
     <row r="179">
@@ -4360,13 +4360,13 @@
         <v>25</v>
       </c>
       <c r="D179" t="n">
-        <v>0.6903096903096904</v>
+        <v>0.6193806193806194</v>
       </c>
       <c r="E179" t="n">
-        <v>0.3096903096903097</v>
+        <v>0.3806193806193806</v>
       </c>
       <c r="F179" t="n">
-        <v>25.671875</v>
+        <v>49.609375</v>
       </c>
     </row>
     <row r="180">
@@ -4382,13 +4382,13 @@
         <v>25</v>
       </c>
       <c r="D180" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.6483516483516484</v>
       </c>
       <c r="E180" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.3516483516483517</v>
       </c>
       <c r="F180" t="n">
-        <v>25.375</v>
+        <v>48.984375</v>
       </c>
     </row>
     <row r="181">
@@ -4404,13 +4404,13 @@
         <v>25</v>
       </c>
       <c r="D181" t="n">
-        <v>0.7042957042957043</v>
+        <v>0.6343656343656343</v>
       </c>
       <c r="E181" t="n">
-        <v>0.2957042957042957</v>
+        <v>0.3656343656343656</v>
       </c>
       <c r="F181" t="n">
-        <v>25.890625</v>
+        <v>49.28125</v>
       </c>
     </row>
     <row r="182">
@@ -4426,13 +4426,13 @@
         <v>25</v>
       </c>
       <c r="D182" t="n">
-        <v>0.7072927072927073</v>
+        <v>0.6303696303696303</v>
       </c>
       <c r="E182" t="n">
-        <v>0.2927072927072927</v>
+        <v>0.3696303696303696</v>
       </c>
       <c r="F182" t="n">
-        <v>25.828125</v>
+        <v>50.46875</v>
       </c>
     </row>
     <row r="183">
@@ -4448,13 +4448,13 @@
         <v>25</v>
       </c>
       <c r="D183" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.6483516483516484</v>
       </c>
       <c r="E183" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.3516483516483517</v>
       </c>
       <c r="F183" t="n">
-        <v>25.390625</v>
+        <v>49.125</v>
       </c>
     </row>
     <row r="184">
@@ -4470,13 +4470,13 @@
         <v>25</v>
       </c>
       <c r="D184" t="n">
-        <v>0.6983016983016983</v>
+        <v>0.6383616383616384</v>
       </c>
       <c r="E184" t="n">
-        <v>0.3016983016983017</v>
+        <v>0.3616383616383617</v>
       </c>
       <c r="F184" t="n">
-        <v>25.15625</v>
+        <v>49.609375</v>
       </c>
     </row>
     <row r="185">
@@ -4492,13 +4492,13 @@
         <v>25</v>
       </c>
       <c r="D185" t="n">
-        <v>0.6713286713286714</v>
+        <v>0.6303696303696303</v>
       </c>
       <c r="E185" t="n">
-        <v>0.3286713286713286</v>
+        <v>0.3696303696303696</v>
       </c>
       <c r="F185" t="n">
-        <v>25.75</v>
+        <v>49.390625</v>
       </c>
     </row>
     <row r="186">
@@ -4514,13 +4514,13 @@
         <v>25</v>
       </c>
       <c r="D186" t="n">
-        <v>0.6953046953046953</v>
+        <v>0.6643356643356644</v>
       </c>
       <c r="E186" t="n">
-        <v>0.3046953046953047</v>
+        <v>0.3356643356643357</v>
       </c>
       <c r="F186" t="n">
-        <v>25.5625</v>
+        <v>48.84375</v>
       </c>
     </row>
     <row r="187">
@@ -4536,13 +4536,13 @@
         <v>25</v>
       </c>
       <c r="D187" t="n">
-        <v>0.6833166833166833</v>
+        <v>0.6253746253746254</v>
       </c>
       <c r="E187" t="n">
-        <v>0.3166833166833167</v>
+        <v>0.3746253746253747</v>
       </c>
       <c r="F187" t="n">
-        <v>26.25</v>
+        <v>49.1875</v>
       </c>
     </row>
     <row r="188">
@@ -4558,13 +4558,13 @@
         <v>25</v>
       </c>
       <c r="D188" t="n">
-        <v>0.6953046953046953</v>
+        <v>0.6423576423576424</v>
       </c>
       <c r="E188" t="n">
-        <v>0.3046953046953047</v>
+        <v>0.3576423576423576</v>
       </c>
       <c r="F188" t="n">
-        <v>25.15625</v>
+        <v>49.25</v>
       </c>
     </row>
     <row r="189">
@@ -4580,13 +4580,13 @@
         <v>25</v>
       </c>
       <c r="D189" t="n">
-        <v>0.7032967032967034</v>
+        <v>0.6063936063936064</v>
       </c>
       <c r="E189" t="n">
-        <v>0.2967032967032967</v>
+        <v>0.3936063936063936</v>
       </c>
       <c r="F189" t="n">
-        <v>25.375</v>
+        <v>50.203125</v>
       </c>
     </row>
     <row r="190">
@@ -4602,13 +4602,13 @@
         <v>25</v>
       </c>
       <c r="D190" t="n">
-        <v>0.7202797202797203</v>
+        <v>0.6423576423576424</v>
       </c>
       <c r="E190" t="n">
-        <v>0.2797202797202797</v>
+        <v>0.3576423576423576</v>
       </c>
       <c r="F190" t="n">
-        <v>26</v>
+        <v>49.890625</v>
       </c>
     </row>
     <row r="191">
@@ -4624,13 +4624,13 @@
         <v>25</v>
       </c>
       <c r="D191" t="n">
-        <v>0.6953046953046953</v>
+        <v>0.6413586413586414</v>
       </c>
       <c r="E191" t="n">
-        <v>0.3046953046953047</v>
+        <v>0.3586413586413587</v>
       </c>
       <c r="F191" t="n">
-        <v>25.5</v>
+        <v>50.5</v>
       </c>
     </row>
     <row r="192">
@@ -4646,13 +4646,13 @@
         <v>25</v>
       </c>
       <c r="D192" t="n">
-        <v>0.6973026973026973</v>
+        <v>0.6593406593406593</v>
       </c>
       <c r="E192" t="n">
-        <v>0.3026973026973027</v>
+        <v>0.3406593406593407</v>
       </c>
       <c r="F192" t="n">
-        <v>25.65625</v>
+        <v>49.9375</v>
       </c>
     </row>
     <row r="193">
@@ -4668,13 +4668,13 @@
         <v>25</v>
       </c>
       <c r="D193" t="n">
-        <v>0.6913086913086913</v>
+        <v>0.6273726273726273</v>
       </c>
       <c r="E193" t="n">
-        <v>0.3086913086913087</v>
+        <v>0.3726273726273726</v>
       </c>
       <c r="F193" t="n">
-        <v>25.890625</v>
+        <v>49.6875</v>
       </c>
     </row>
     <row r="194">
@@ -4690,13 +4690,13 @@
         <v>25</v>
       </c>
       <c r="D194" t="n">
-        <v>0.7362637362637363</v>
+        <v>0.5854145854145855</v>
       </c>
       <c r="E194" t="n">
-        <v>0.2637362637362637</v>
+        <v>0.4145854145854146</v>
       </c>
       <c r="F194" t="n">
-        <v>25.59375</v>
+        <v>49.875</v>
       </c>
     </row>
     <row r="195">
@@ -4712,13 +4712,13 @@
         <v>25</v>
       </c>
       <c r="D195" t="n">
-        <v>0.6833166833166833</v>
+        <v>0.6333666333666333</v>
       </c>
       <c r="E195" t="n">
-        <v>0.3166833166833167</v>
+        <v>0.3666333666333667</v>
       </c>
       <c r="F195" t="n">
-        <v>25.6875</v>
+        <v>49.703125</v>
       </c>
     </row>
     <row r="196">
@@ -4734,13 +4734,13 @@
         <v>25</v>
       </c>
       <c r="D196" t="n">
-        <v>0.7032967032967034</v>
+        <v>0.6333666333666333</v>
       </c>
       <c r="E196" t="n">
-        <v>0.2967032967032967</v>
+        <v>0.3666333666333667</v>
       </c>
       <c r="F196" t="n">
-        <v>26.078125</v>
+        <v>49.5</v>
       </c>
     </row>
     <row r="197">
@@ -4756,13 +4756,13 @@
         <v>25</v>
       </c>
       <c r="D197" t="n">
-        <v>0.7252747252747253</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="E197" t="n">
-        <v>0.2747252747252747</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="F197" t="n">
-        <v>25.640625</v>
+        <v>49.15625</v>
       </c>
     </row>
     <row r="198">
@@ -4778,13 +4778,13 @@
         <v>25</v>
       </c>
       <c r="D198" t="n">
-        <v>0.6943056943056943</v>
+        <v>0.6283716283716284</v>
       </c>
       <c r="E198" t="n">
-        <v>0.3056943056943057</v>
+        <v>0.3716283716283716</v>
       </c>
       <c r="F198" t="n">
-        <v>25.953125</v>
+        <v>47.890625</v>
       </c>
     </row>
     <row r="199">
@@ -4800,13 +4800,13 @@
         <v>25</v>
       </c>
       <c r="D199" t="n">
-        <v>0.7042957042957043</v>
+        <v>0.6013986013986014</v>
       </c>
       <c r="E199" t="n">
-        <v>0.2957042957042957</v>
+        <v>0.3986013986013986</v>
       </c>
       <c r="F199" t="n">
-        <v>25.5625</v>
+        <v>48.703125</v>
       </c>
     </row>
     <row r="200">
@@ -4822,13 +4822,13 @@
         <v>25</v>
       </c>
       <c r="D200" t="n">
-        <v>0.7092907092907093</v>
+        <v>0.6523476523476524</v>
       </c>
       <c r="E200" t="n">
-        <v>0.2907092907092907</v>
+        <v>0.3476523476523476</v>
       </c>
       <c r="F200" t="n">
-        <v>24.234375</v>
+        <v>49.375</v>
       </c>
     </row>
     <row r="201">
@@ -4844,13 +4844,13 @@
         <v>25</v>
       </c>
       <c r="D201" t="n">
-        <v>0.6943056943056943</v>
+        <v>0.6293706293706294</v>
       </c>
       <c r="E201" t="n">
-        <v>0.3056943056943057</v>
+        <v>0.3706293706293706</v>
       </c>
       <c r="F201" t="n">
-        <v>23.328125</v>
+        <v>46.84375</v>
       </c>
     </row>
     <row r="202">
@@ -4866,13 +4866,13 @@
         <v>25</v>
       </c>
       <c r="D202" t="n">
-        <v>0.9890109890109891</v>
+        <v>0.988011988011988</v>
       </c>
       <c r="E202" t="n">
-        <v>0.01098901098901099</v>
+        <v>0.01198801198801199</v>
       </c>
       <c r="F202" t="n">
-        <v>27.34375</v>
+        <v>54.6875</v>
       </c>
     </row>
     <row r="203">
@@ -4888,13 +4888,13 @@
         <v>25</v>
       </c>
       <c r="D203" t="n">
-        <v>0.988011988011988</v>
+        <v>0.99000999000999</v>
       </c>
       <c r="E203" t="n">
-        <v>0.01198801198801199</v>
+        <v>0.00999000999000999</v>
       </c>
       <c r="F203" t="n">
-        <v>27.578125</v>
+        <v>54.203125</v>
       </c>
     </row>
     <row r="204">
@@ -4910,13 +4910,13 @@
         <v>25</v>
       </c>
       <c r="D204" t="n">
-        <v>0.9820179820179821</v>
+        <v>0.988011988011988</v>
       </c>
       <c r="E204" t="n">
-        <v>0.01798201798201798</v>
+        <v>0.01198801198801199</v>
       </c>
       <c r="F204" t="n">
-        <v>27.1875</v>
+        <v>53.875</v>
       </c>
     </row>
     <row r="205">
@@ -4932,13 +4932,13 @@
         <v>25</v>
       </c>
       <c r="D205" t="n">
-        <v>0.986013986013986</v>
+        <v>0.991008991008991</v>
       </c>
       <c r="E205" t="n">
-        <v>0.01398601398601399</v>
+        <v>0.008991008991008992</v>
       </c>
       <c r="F205" t="n">
-        <v>27.9375</v>
+        <v>54.15625</v>
       </c>
     </row>
     <row r="206">
@@ -4954,13 +4954,13 @@
         <v>25</v>
       </c>
       <c r="D206" t="n">
-        <v>0.9890109890109891</v>
+        <v>0.986013986013986</v>
       </c>
       <c r="E206" t="n">
-        <v>0.01098901098901099</v>
+        <v>0.01398601398601399</v>
       </c>
       <c r="F206" t="n">
-        <v>27.375</v>
+        <v>53.625</v>
       </c>
     </row>
     <row r="207">
@@ -4976,13 +4976,13 @@
         <v>25</v>
       </c>
       <c r="D207" t="n">
-        <v>0.986013986013986</v>
+        <v>0.994005994005994</v>
       </c>
       <c r="E207" t="n">
-        <v>0.01398601398601399</v>
+        <v>0.005994005994005994</v>
       </c>
       <c r="F207" t="n">
-        <v>27.84375</v>
+        <v>55.390625</v>
       </c>
     </row>
     <row r="208">
@@ -4998,13 +4998,13 @@
         <v>25</v>
       </c>
       <c r="D208" t="n">
-        <v>0.985014985014985</v>
+        <v>0.99000999000999</v>
       </c>
       <c r="E208" t="n">
-        <v>0.01498501498501499</v>
+        <v>0.00999000999000999</v>
       </c>
       <c r="F208" t="n">
-        <v>27.765625</v>
+        <v>54.796875</v>
       </c>
     </row>
     <row r="209">
@@ -5020,13 +5020,13 @@
         <v>25</v>
       </c>
       <c r="D209" t="n">
-        <v>0.9920079920079921</v>
+        <v>0.9820179820179821</v>
       </c>
       <c r="E209" t="n">
-        <v>0.007992007992007992</v>
+        <v>0.01798201798201798</v>
       </c>
       <c r="F209" t="n">
-        <v>27.578125</v>
+        <v>54.3125</v>
       </c>
     </row>
     <row r="210">
@@ -5042,13 +5042,13 @@
         <v>25</v>
       </c>
       <c r="D210" t="n">
-        <v>0.987012987012987</v>
+        <v>0.993006993006993</v>
       </c>
       <c r="E210" t="n">
-        <v>0.01298701298701299</v>
+        <v>0.006993006993006993</v>
       </c>
       <c r="F210" t="n">
-        <v>27.890625</v>
+        <v>54.921875</v>
       </c>
     </row>
     <row r="211">
@@ -5064,13 +5064,13 @@
         <v>25</v>
       </c>
       <c r="D211" t="n">
-        <v>0.9820179820179821</v>
+        <v>0.993006993006993</v>
       </c>
       <c r="E211" t="n">
-        <v>0.01798201798201798</v>
+        <v>0.006993006993006993</v>
       </c>
       <c r="F211" t="n">
-        <v>27.84375</v>
+        <v>54.65625</v>
       </c>
     </row>
     <row r="212">
@@ -5086,13 +5086,13 @@
         <v>25</v>
       </c>
       <c r="D212" t="n">
-        <v>0.9820179820179821</v>
+        <v>0.9920079920079921</v>
       </c>
       <c r="E212" t="n">
-        <v>0.01798201798201798</v>
+        <v>0.007992007992007992</v>
       </c>
       <c r="F212" t="n">
-        <v>27.703125</v>
+        <v>54.34375</v>
       </c>
     </row>
     <row r="213">
@@ -5108,13 +5108,13 @@
         <v>25</v>
       </c>
       <c r="D213" t="n">
-        <v>0.9890109890109891</v>
+        <v>0.988011988011988</v>
       </c>
       <c r="E213" t="n">
-        <v>0.01098901098901099</v>
+        <v>0.01198801198801199</v>
       </c>
       <c r="F213" t="n">
-        <v>27.65625</v>
+        <v>54.28125</v>
       </c>
     </row>
     <row r="214">
@@ -5130,13 +5130,13 @@
         <v>25</v>
       </c>
       <c r="D214" t="n">
-        <v>0.986013986013986</v>
+        <v>0.9920079920079921</v>
       </c>
       <c r="E214" t="n">
-        <v>0.01398601398601399</v>
+        <v>0.007992007992007992</v>
       </c>
       <c r="F214" t="n">
-        <v>27.984375</v>
+        <v>53.515625</v>
       </c>
     </row>
     <row r="215">
@@ -5152,13 +5152,13 @@
         <v>25</v>
       </c>
       <c r="D215" t="n">
-        <v>0.984015984015984</v>
+        <v>0.9920079920079921</v>
       </c>
       <c r="E215" t="n">
-        <v>0.01598401598401598</v>
+        <v>0.007992007992007992</v>
       </c>
       <c r="F215" t="n">
-        <v>27.375</v>
+        <v>54.84375</v>
       </c>
     </row>
     <row r="216">
@@ -5174,13 +5174,13 @@
         <v>25</v>
       </c>
       <c r="D216" t="n">
-        <v>0.985014985014985</v>
+        <v>0.981018981018981</v>
       </c>
       <c r="E216" t="n">
-        <v>0.01498501498501499</v>
+        <v>0.01898101898101898</v>
       </c>
       <c r="F216" t="n">
-        <v>27.625</v>
+        <v>53.3125</v>
       </c>
     </row>
     <row r="217">
@@ -5196,13 +5196,13 @@
         <v>25</v>
       </c>
       <c r="D217" t="n">
-        <v>0.9820179820179821</v>
+        <v>0.9890109890109891</v>
       </c>
       <c r="E217" t="n">
-        <v>0.01798201798201798</v>
+        <v>0.01098901098901099</v>
       </c>
       <c r="F217" t="n">
-        <v>27.9375</v>
+        <v>54.421875</v>
       </c>
     </row>
     <row r="218">
@@ -5218,13 +5218,13 @@
         <v>25</v>
       </c>
       <c r="D218" t="n">
-        <v>0.994005994005994</v>
+        <v>0.985014985014985</v>
       </c>
       <c r="E218" t="n">
-        <v>0.005994005994005994</v>
+        <v>0.01498501498501499</v>
       </c>
       <c r="F218" t="n">
-        <v>27.65625</v>
+        <v>54.8125</v>
       </c>
     </row>
     <row r="219">
@@ -5240,13 +5240,13 @@
         <v>25</v>
       </c>
       <c r="D219" t="n">
-        <v>0.988011988011988</v>
+        <v>0.987012987012987</v>
       </c>
       <c r="E219" t="n">
-        <v>0.01198801198801199</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="F219" t="n">
-        <v>27.828125</v>
+        <v>54.765625</v>
       </c>
     </row>
     <row r="220">
@@ -5262,13 +5262,13 @@
         <v>25</v>
       </c>
       <c r="D220" t="n">
-        <v>0.99000999000999</v>
+        <v>0.9820179820179821</v>
       </c>
       <c r="E220" t="n">
-        <v>0.00999000999000999</v>
+        <v>0.01798201798201798</v>
       </c>
       <c r="F220" t="n">
-        <v>28.25</v>
+        <v>55.421875</v>
       </c>
     </row>
     <row r="221">
@@ -5284,13 +5284,13 @@
         <v>25</v>
       </c>
       <c r="D221" t="n">
-        <v>0.981018981018981</v>
+        <v>0.984015984015984</v>
       </c>
       <c r="E221" t="n">
-        <v>0.01898101898101898</v>
+        <v>0.01598401598401598</v>
       </c>
       <c r="F221" t="n">
-        <v>28.21875</v>
+        <v>53.765625</v>
       </c>
     </row>
     <row r="222">
@@ -5306,13 +5306,13 @@
         <v>25</v>
       </c>
       <c r="D222" t="n">
-        <v>0.9890109890109891</v>
+        <v>0.981018981018981</v>
       </c>
       <c r="E222" t="n">
-        <v>0.01098901098901099</v>
+        <v>0.01898101898101898</v>
       </c>
       <c r="F222" t="n">
-        <v>27.78125</v>
+        <v>54.890625</v>
       </c>
     </row>
     <row r="223">
@@ -5328,13 +5328,13 @@
         <v>25</v>
       </c>
       <c r="D223" t="n">
-        <v>0.98001998001998</v>
+        <v>0.985014985014985</v>
       </c>
       <c r="E223" t="n">
-        <v>0.01998001998001998</v>
+        <v>0.01498501498501499</v>
       </c>
       <c r="F223" t="n">
-        <v>28.25</v>
+        <v>54.546875</v>
       </c>
     </row>
     <row r="224">
@@ -5350,13 +5350,13 @@
         <v>25</v>
       </c>
       <c r="D224" t="n">
-        <v>0.988011988011988</v>
+        <v>0.99000999000999</v>
       </c>
       <c r="E224" t="n">
-        <v>0.01198801198801199</v>
+        <v>0.00999000999000999</v>
       </c>
       <c r="F224" t="n">
-        <v>27.5</v>
+        <v>54.96875</v>
       </c>
     </row>
     <row r="225">
@@ -5372,13 +5372,13 @@
         <v>25</v>
       </c>
       <c r="D225" t="n">
-        <v>0.9890109890109891</v>
+        <v>0.9820179820179821</v>
       </c>
       <c r="E225" t="n">
-        <v>0.01098901098901099</v>
+        <v>0.01798201798201798</v>
       </c>
       <c r="F225" t="n">
-        <v>27.21875</v>
+        <v>52.84375</v>
       </c>
     </row>
     <row r="226">
@@ -5400,7 +5400,7 @@
         <v>0.01998001998001998</v>
       </c>
       <c r="F226" t="n">
-        <v>26.6875</v>
+        <v>53.59375</v>
       </c>
     </row>
     <row r="227">
@@ -5416,13 +5416,13 @@
         <v>25</v>
       </c>
       <c r="D227" t="n">
-        <v>0.7002997002997003</v>
+        <v>0.6353646353646354</v>
       </c>
       <c r="E227" t="n">
-        <v>0.2997002997002997</v>
+        <v>0.3646353646353646</v>
       </c>
       <c r="F227" t="n">
-        <v>28.671875</v>
+        <v>56.015625</v>
       </c>
     </row>
     <row r="228">
@@ -5438,13 +5438,13 @@
         <v>25</v>
       </c>
       <c r="D228" t="n">
-        <v>0.6953046953046953</v>
+        <v>0.6513486513486514</v>
       </c>
       <c r="E228" t="n">
-        <v>0.3046953046953047</v>
+        <v>0.3486513486513487</v>
       </c>
       <c r="F228" t="n">
-        <v>28.296875</v>
+        <v>55.828125</v>
       </c>
     </row>
     <row r="229">
@@ -5460,13 +5460,13 @@
         <v>25</v>
       </c>
       <c r="D229" t="n">
-        <v>0.6823176823176823</v>
+        <v>0.6463536463536463</v>
       </c>
       <c r="E229" t="n">
-        <v>0.3176823176823177</v>
+        <v>0.3536463536463537</v>
       </c>
       <c r="F229" t="n">
-        <v>28.328125</v>
+        <v>55.875</v>
       </c>
     </row>
     <row r="230">
@@ -5482,13 +5482,13 @@
         <v>25</v>
       </c>
       <c r="D230" t="n">
-        <v>0.6553446553446554</v>
+        <v>0.6473526473526473</v>
       </c>
       <c r="E230" t="n">
-        <v>0.3446553446553446</v>
+        <v>0.3526473526473526</v>
       </c>
       <c r="F230" t="n">
-        <v>28.359375</v>
+        <v>55.546875</v>
       </c>
     </row>
     <row r="231">
@@ -5504,13 +5504,13 @@
         <v>25</v>
       </c>
       <c r="D231" t="n">
-        <v>0.7252747252747253</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="E231" t="n">
-        <v>0.2747252747252747</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="F231" t="n">
-        <v>28.53125</v>
+        <v>55.234375</v>
       </c>
     </row>
     <row r="232">
@@ -5526,13 +5526,13 @@
         <v>25</v>
       </c>
       <c r="D232" t="n">
-        <v>0.6943056943056943</v>
+        <v>0.6413586413586414</v>
       </c>
       <c r="E232" t="n">
-        <v>0.3056943056943057</v>
+        <v>0.3586413586413587</v>
       </c>
       <c r="F232" t="n">
-        <v>28.546875</v>
+        <v>56.65625</v>
       </c>
     </row>
     <row r="233">
@@ -5548,13 +5548,13 @@
         <v>25</v>
       </c>
       <c r="D233" t="n">
-        <v>0.6813186813186813</v>
+        <v>0.6793206793206793</v>
       </c>
       <c r="E233" t="n">
-        <v>0.3186813186813187</v>
+        <v>0.3206793206793207</v>
       </c>
       <c r="F233" t="n">
-        <v>28.3125</v>
+        <v>55.71875</v>
       </c>
     </row>
     <row r="234">
@@ -5570,13 +5570,13 @@
         <v>25</v>
       </c>
       <c r="D234" t="n">
-        <v>0.6993006993006993</v>
+        <v>0.6313686313686314</v>
       </c>
       <c r="E234" t="n">
-        <v>0.3006993006993007</v>
+        <v>0.3686313686313686</v>
       </c>
       <c r="F234" t="n">
-        <v>28.171875</v>
+        <v>55.3125</v>
       </c>
     </row>
     <row r="235">
@@ -5592,13 +5592,13 @@
         <v>25</v>
       </c>
       <c r="D235" t="n">
-        <v>0.6923076923076923</v>
+        <v>0.6813186813186813</v>
       </c>
       <c r="E235" t="n">
-        <v>0.3076923076923077</v>
+        <v>0.3186813186813187</v>
       </c>
       <c r="F235" t="n">
-        <v>27.890625</v>
+        <v>55.28125</v>
       </c>
     </row>
     <row r="236">
@@ -5614,13 +5614,13 @@
         <v>25</v>
       </c>
       <c r="D236" t="n">
-        <v>0.7042957042957043</v>
+        <v>0.6353646353646354</v>
       </c>
       <c r="E236" t="n">
-        <v>0.2957042957042957</v>
+        <v>0.3646353646353646</v>
       </c>
       <c r="F236" t="n">
-        <v>28.75</v>
+        <v>55.5</v>
       </c>
     </row>
     <row r="237">
@@ -5636,13 +5636,13 @@
         <v>25</v>
       </c>
       <c r="D237" t="n">
-        <v>0.6733266733266733</v>
+        <v>0.6503496503496503</v>
       </c>
       <c r="E237" t="n">
-        <v>0.3266733266733267</v>
+        <v>0.3496503496503496</v>
       </c>
       <c r="F237" t="n">
-        <v>28.859375</v>
+        <v>55.875</v>
       </c>
     </row>
     <row r="238">
@@ -5658,13 +5658,13 @@
         <v>25</v>
       </c>
       <c r="D238" t="n">
-        <v>0.6863136863136863</v>
+        <v>0.6673326673326674</v>
       </c>
       <c r="E238" t="n">
-        <v>0.3136863136863137</v>
+        <v>0.3326673326673327</v>
       </c>
       <c r="F238" t="n">
-        <v>28.203125</v>
+        <v>56.15625</v>
       </c>
     </row>
     <row r="239">
@@ -5680,13 +5680,13 @@
         <v>25</v>
       </c>
       <c r="D239" t="n">
-        <v>0.6963036963036963</v>
+        <v>0.6813186813186813</v>
       </c>
       <c r="E239" t="n">
-        <v>0.3036963036963037</v>
+        <v>0.3186813186813187</v>
       </c>
       <c r="F239" t="n">
-        <v>28.15625</v>
+        <v>55.53125</v>
       </c>
     </row>
     <row r="240">
@@ -5702,13 +5702,13 @@
         <v>25</v>
       </c>
       <c r="D240" t="n">
-        <v>0.6943056943056943</v>
+        <v>0.6553446553446554</v>
       </c>
       <c r="E240" t="n">
-        <v>0.3056943056943057</v>
+        <v>0.3446553446553446</v>
       </c>
       <c r="F240" t="n">
-        <v>28.140625</v>
+        <v>54.921875</v>
       </c>
     </row>
     <row r="241">
@@ -5724,13 +5724,13 @@
         <v>25</v>
       </c>
       <c r="D241" t="n">
-        <v>0.7092907092907093</v>
+        <v>0.6433566433566433</v>
       </c>
       <c r="E241" t="n">
-        <v>0.2907092907092907</v>
+        <v>0.3566433566433567</v>
       </c>
       <c r="F241" t="n">
-        <v>29.53125</v>
+        <v>55.328125</v>
       </c>
     </row>
     <row r="242">
@@ -5746,13 +5746,13 @@
         <v>25</v>
       </c>
       <c r="D242" t="n">
-        <v>0.6963036963036963</v>
+        <v>0.6073926073926074</v>
       </c>
       <c r="E242" t="n">
-        <v>0.3036963036963037</v>
+        <v>0.3926073926073926</v>
       </c>
       <c r="F242" t="n">
-        <v>28.546875</v>
+        <v>56.9375</v>
       </c>
     </row>
     <row r="243">
@@ -5768,13 +5768,13 @@
         <v>25</v>
       </c>
       <c r="D243" t="n">
-        <v>0.6933066933066933</v>
+        <v>0.6403596403596403</v>
       </c>
       <c r="E243" t="n">
-        <v>0.3066933066933067</v>
+        <v>0.3596403596403596</v>
       </c>
       <c r="F243" t="n">
-        <v>28.265625</v>
+        <v>54.390625</v>
       </c>
     </row>
     <row r="244">
@@ -5790,13 +5790,13 @@
         <v>25</v>
       </c>
       <c r="D244" t="n">
-        <v>0.6913086913086913</v>
+        <v>0.6293706293706294</v>
       </c>
       <c r="E244" t="n">
-        <v>0.3086913086913087</v>
+        <v>0.3706293706293706</v>
       </c>
       <c r="F244" t="n">
-        <v>27.734375</v>
+        <v>54.359375</v>
       </c>
     </row>
     <row r="245">
@@ -5812,13 +5812,13 @@
         <v>25</v>
       </c>
       <c r="D245" t="n">
-        <v>0.7042957042957043</v>
+        <v>0.6583416583416584</v>
       </c>
       <c r="E245" t="n">
-        <v>0.2957042957042957</v>
+        <v>0.3416583416583416</v>
       </c>
       <c r="F245" t="n">
-        <v>27.84375</v>
+        <v>55.875</v>
       </c>
     </row>
     <row r="246">
@@ -5834,13 +5834,13 @@
         <v>25</v>
       </c>
       <c r="D246" t="n">
-        <v>0.7022977022977023</v>
+        <v>0.6413586413586414</v>
       </c>
       <c r="E246" t="n">
-        <v>0.2977022977022977</v>
+        <v>0.3586413586413587</v>
       </c>
       <c r="F246" t="n">
-        <v>28.0625</v>
+        <v>54.53125</v>
       </c>
     </row>
     <row r="247">
@@ -5856,13 +5856,13 @@
         <v>25</v>
       </c>
       <c r="D247" t="n">
-        <v>0.6863136863136863</v>
+        <v>0.6673326673326674</v>
       </c>
       <c r="E247" t="n">
-        <v>0.3136863136863137</v>
+        <v>0.3326673326673327</v>
       </c>
       <c r="F247" t="n">
-        <v>28.1875</v>
+        <v>54.609375</v>
       </c>
     </row>
     <row r="248">
@@ -5878,13 +5878,13 @@
         <v>25</v>
       </c>
       <c r="D248" t="n">
-        <v>0.6803196803196803</v>
+        <v>0.6383616383616384</v>
       </c>
       <c r="E248" t="n">
-        <v>0.3196803196803197</v>
+        <v>0.3616383616383617</v>
       </c>
       <c r="F248" t="n">
-        <v>27.9375</v>
+        <v>55.5</v>
       </c>
     </row>
     <row r="249">
@@ -5900,13 +5900,13 @@
         <v>25</v>
       </c>
       <c r="D249" t="n">
-        <v>0.7192807192807192</v>
+        <v>0.6413586413586414</v>
       </c>
       <c r="E249" t="n">
-        <v>0.2807192807192807</v>
+        <v>0.3586413586413587</v>
       </c>
       <c r="F249" t="n">
-        <v>27.65625</v>
+        <v>54.71875</v>
       </c>
     </row>
     <row r="250">
@@ -5922,13 +5922,13 @@
         <v>25</v>
       </c>
       <c r="D250" t="n">
-        <v>0.6943056943056943</v>
+        <v>0.6423576423576424</v>
       </c>
       <c r="E250" t="n">
-        <v>0.3056943056943057</v>
+        <v>0.3576423576423576</v>
       </c>
       <c r="F250" t="n">
-        <v>27</v>
+        <v>54.59375</v>
       </c>
     </row>
     <row r="251">
@@ -5944,13 +5944,13 @@
         <v>25</v>
       </c>
       <c r="D251" t="n">
-        <v>0.6963036963036963</v>
+        <v>0.6553446553446554</v>
       </c>
       <c r="E251" t="n">
-        <v>0.3036963036963037</v>
+        <v>0.3446553446553446</v>
       </c>
       <c r="F251" t="n">
-        <v>27.1875</v>
+        <v>53.6875</v>
       </c>
     </row>
   </sheetData>
